--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1299,11 +1299,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1455,12 +1455,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
+      <c r="H4">
+        <v>13</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,12 +1634,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
+      <c r="H12">
+        <v>18</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1763,12 +1769,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6"/>
+      <c r="H18">
+        <v>16</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,12 +1860,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
+      <c r="H22">
+        <v>17</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1873,12 +1885,15 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6"/>
+      <c r="H23">
+        <v>12</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,12 +1910,15 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
+      <c r="H24">
+        <v>17</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1917,12 +1935,15 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6"/>
+      <c r="H25">
+        <v>17</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1961,12 +1982,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
+      <c r="H27">
+        <v>12</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2181,12 +2205,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="6"/>
+      <c r="H37">
+        <v>18</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,12 +2230,15 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="6"/>
+      <c r="H38">
+        <v>13</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,12 +2277,15 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
+      <c r="H40">
+        <v>13</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,12 +2456,15 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="6"/>
+      <c r="H48">
+        <v>16</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2467,12 +2503,15 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
+      <c r="H50">
+        <v>17</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,12 +2528,15 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="6"/>
+      <c r="H51">
+        <v>14</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,12 +2553,15 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="6"/>
+      <c r="H52">
+        <v>18</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2577,12 +2622,15 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="6"/>
+      <c r="H55">
+        <v>14</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2599,12 +2647,15 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="6"/>
+      <c r="H56">
+        <v>18</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,12 +2672,15 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="6"/>
+      <c r="H57">
+        <v>17</v>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,12 +2697,15 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="6"/>
+      <c r="H58">
+        <v>17</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,12 +2810,15 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="6"/>
+      <c r="H63">
+        <v>17</v>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,12 +2835,15 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
+      <c r="H64">
+        <v>14</v>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,12 +2882,15 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
+      <c r="H66">
+        <v>17</v>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,12 +2907,15 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="6"/>
+      <c r="H67">
+        <v>18</v>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>0</v>
+        <f t="shared" ref="N67:N126" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,12 +2932,15 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="6"/>
+      <c r="H68">
+        <v>14</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2885,12 +2957,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="6"/>
+      <c r="H69">
+        <v>14</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,12 +2982,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="6"/>
+      <c r="H70">
+        <v>18</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,12 +3051,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
+      <c r="H73">
+        <v>13</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,12 +3098,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="6"/>
+      <c r="H75">
+        <v>17</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,12 +3145,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
+      <c r="H77">
+        <v>17</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3083,12 +3170,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="6"/>
+      <c r="H78">
+        <v>18</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,12 +3217,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="6"/>
+      <c r="H80">
+        <v>13</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,12 +3264,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="6"/>
+      <c r="H82">
+        <v>17</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3193,12 +3289,15 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="6"/>
+      <c r="H83">
+        <v>17</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3259,12 +3358,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="6"/>
+      <c r="H86">
+        <v>12</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,12 +3383,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="6"/>
+      <c r="H87">
+        <v>16</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3369,12 +3474,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="6"/>
+      <c r="H91">
+        <v>16</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,12 +3521,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="6"/>
+      <c r="H93">
+        <v>18</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3435,12 +3546,15 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="6"/>
+      <c r="H94">
+        <v>17</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3457,12 +3571,15 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="6"/>
+      <c r="H95">
+        <v>17</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3479,12 +3596,15 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="6"/>
+      <c r="H96">
+        <v>17</v>
+      </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="N96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,12 +3621,15 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="6"/>
+      <c r="H97">
+        <v>17</v>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="N97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,12 +3646,15 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="6"/>
+      <c r="H98">
+        <v>17</v>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3545,12 +3671,15 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="6"/>
+      <c r="H99">
+        <v>17</v>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="N99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3589,12 +3718,15 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="6"/>
+      <c r="H101">
+        <v>17</v>
+      </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3611,12 +3743,15 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="6"/>
+      <c r="H102">
+        <v>17</v>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3633,12 +3768,15 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="6"/>
+      <c r="H103">
+        <v>12</v>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="N103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3655,12 +3793,15 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="6"/>
+      <c r="H104">
+        <v>18</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="N104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,12 +3818,15 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="6"/>
+      <c r="H105">
+        <v>18</v>
+      </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="N105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,12 +3843,15 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="6"/>
+      <c r="H106">
+        <v>13</v>
+      </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="N106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,12 +3890,15 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="6"/>
+      <c r="H108">
+        <v>16</v>
+      </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="N108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3765,12 +3915,15 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="6"/>
+      <c r="H109">
+        <v>17</v>
+      </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="N109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,12 +3984,15 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="6"/>
+      <c r="H112">
+        <v>16</v>
+      </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="N112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,46 +4075,40 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="6"/>
+      <c r="H116">
+        <v>13</v>
+      </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="N116">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D117" s="6" t="str">
-        <f t="shared" ref="D67:D130" si="2">IF((N117)&gt;=50,10,"")</f>
+        <f t="shared" ref="D117:D126" si="2">IF((N117)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" ref="E67:E130" si="3">IF((N117)&gt;=50,20,"")</f>
+        <f t="shared" ref="E117:E126" si="3">IF((N117)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F117" s="2" t="str">
-        <f t="shared" ref="F67:F130" si="4">IF((N117)&gt;=50,20,"")</f>
+        <f t="shared" ref="F117:F126" si="4">IF((N117)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G117" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="5">IF((N117)&gt;=51,IF((N117-50)&gt;50,50,IF((N117-50)&lt;0,0,(N117-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="K117">
-        <v>1</v>
+        <f t="shared" ref="G117:G126" si="5">IF((N117)&gt;=51,IF((N117-50)&gt;50,50,IF((N117-50)&lt;0,0,(N117-50))), "" )</f>
+        <v/>
       </c>
       <c r="N117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D118" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3975,18 +4125,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
       <c r="N118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D119" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4003,18 +4147,12 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
       <c r="N119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D120" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4030,9 +4168,6 @@
       <c r="G120" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
-      </c>
-      <c r="K120">
-        <v>1</v>
       </c>
       <c r="N120">
         <f t="shared" si="1"/>
@@ -4173,111 +4308,111 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D127" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D127:D175" si="6">IF((N127)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E127:E186" si="7">IF((N127)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F127" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F127:F186" si="8">IF((N127)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G127" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G127:G186" si="9">IF((N127)&gt;=51,IF((N127-50)&gt;50,50,IF((N127-50)&lt;0,0,(N127-50))), "" )</f>
         <v/>
       </c>
       <c r="N127">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N127:N181" si="10">IF((H127+J127+L127+M127+O127)&lt;70,IF((H127+J127+L127+M127+O127)&gt;64,70,(H127+J127+L127+M127+O127)),(H127+J127+L127+M127+O127))</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D128" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F128" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G128" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D129" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F129" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G129" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D130" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F130" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G130" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D179" si="6">IF((N131)&gt;=50,10,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E190" si="7">IF((N131)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F190" si="8">IF((N131)&gt;=50,20,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G190" si="9">IF((N131)&gt;=51,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N185" si="10">IF((H131+J131+L131+M131+O131)&lt;70,IF((H131+J131+L131+M131+O131)&gt;64,70,(H131+J131+L131+M131+O131)),(H131+J131+L131+M131+O131))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5251,7 +5386,7 @@
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D176" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D176:D185" si="11">IF((N176)&gt;=70,10,"")</f>
         <v/>
       </c>
       <c r="E176" s="2" t="str">
@@ -5273,7 +5408,7 @@
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D177" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E177" s="2" t="str">
@@ -5295,7 +5430,7 @@
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D178" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E178" s="2" t="str">
@@ -5317,7 +5452,7 @@
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D179" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E179" s="2" t="str">
@@ -5339,7 +5474,7 @@
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D180" s="6" t="str">
-        <f t="shared" ref="D180:D189" si="11">IF((N180)&gt;=70,10,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E180" s="2" t="str">
@@ -5398,10 +5533,6 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N182">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D183" s="6" t="str">
@@ -5420,10 +5551,6 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D184" s="6" t="str">
@@ -5442,10 +5569,6 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N184">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D185" s="6" t="str">
@@ -5464,14 +5587,10 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N185">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D186" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D186" si="12">IF((N186)&gt;=70,10,"")</f>
         <v/>
       </c>
       <c r="E186" s="2" t="str">
@@ -5483,78 +5602,6 @@
         <v/>
       </c>
       <c r="G186" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D187" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G187" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D188" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G188" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D189" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G189" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D190" s="6" t="str">
-        <f t="shared" ref="D190" si="12">IF((N190)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G190" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1299,11 +1299,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1483,9 +1483,12 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1640,9 +1643,12 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1916,9 +1922,12 @@
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2164,9 +2173,12 @@
       <c r="K35">
         <v>1</v>
       </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2509,9 +2521,12 @@
       <c r="K50">
         <v>1</v>
       </c>
+      <c r="L50">
+        <v>40</v>
+      </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,9 +2643,12 @@
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55">
+        <v>40</v>
+      </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,9 +2859,12 @@
       <c r="K64">
         <v>1</v>
       </c>
+      <c r="L64">
+        <v>40</v>
+      </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,9 +2884,12 @@
       <c r="K65">
         <v>1</v>
       </c>
+      <c r="L65">
+        <v>40</v>
+      </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2888,9 +2912,12 @@
       <c r="K66">
         <v>1</v>
       </c>
+      <c r="L66">
+        <v>40</v>
+      </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,9 +2940,12 @@
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67">
+        <v>40</v>
+      </c>
       <c r="N67">
-        <f t="shared" ref="N67:N126" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>18</v>
+        <f t="shared" ref="N67:N116" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2938,9 +2968,12 @@
       <c r="K68">
         <v>1</v>
       </c>
+      <c r="L68">
+        <v>40</v>
+      </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,9 +2996,12 @@
       <c r="K69">
         <v>1</v>
       </c>
+      <c r="L69">
+        <v>40</v>
+      </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3104,9 +3140,12 @@
       <c r="K75">
         <v>1</v>
       </c>
+      <c r="L75">
+        <v>40</v>
+      </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,9 +3215,12 @@
       <c r="K78">
         <v>1</v>
       </c>
+      <c r="L78">
+        <v>40</v>
+      </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,9 +3619,12 @@
       <c r="K95">
         <v>1</v>
       </c>
+      <c r="L95">
+        <v>40</v>
+      </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3677,9 +3722,12 @@
       <c r="K99">
         <v>1</v>
       </c>
+      <c r="L99">
+        <v>40</v>
+      </c>
       <c r="N99">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3724,9 +3772,12 @@
       <c r="K101">
         <v>1</v>
       </c>
+      <c r="L101">
+        <v>40</v>
+      </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3749,9 +3800,12 @@
       <c r="K102">
         <v>1</v>
       </c>
+      <c r="L102">
+        <v>40</v>
+      </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3921,9 +3975,12 @@
       <c r="K109">
         <v>1</v>
       </c>
+      <c r="L109">
+        <v>40</v>
+      </c>
       <c r="N109">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4084,1526 +4141,6 @@
       <c r="N116">
         <f t="shared" si="1"/>
         <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D117" s="6" t="str">
-        <f t="shared" ref="D117:D126" si="2">IF((N117)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" ref="E117:E126" si="3">IF((N117)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" ref="F117:F126" si="4">IF((N117)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" ref="G117:G126" si="5">IF((N117)&gt;=51,IF((N117-50)&gt;50,50,IF((N117-50)&lt;0,0,(N117-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="N117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="str">
-        <f t="shared" ref="D127:D175" si="6">IF((N127)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" ref="E127:E186" si="7">IF((N127)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" ref="F127:F186" si="8">IF((N127)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G127" s="6" t="str">
-        <f t="shared" ref="G127:G186" si="9">IF((N127)&gt;=51,IF((N127-50)&gt;50,50,IF((N127-50)&lt;0,0,(N127-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="N127">
-        <f t="shared" ref="N127:N181" si="10">IF((H127+J127+L127+M127+O127)&lt;70,IF((H127+J127+L127+M127+O127)&gt;64,70,(H127+J127+L127+M127+O127)),(H127+J127+L127+M127+O127))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G128" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N128">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G129" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G130" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N130">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D131" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G131" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N131">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G132" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N132">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G133" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G134" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G135" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G136" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G137" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G138" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G139" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G140" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N140">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N141">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G143" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N143">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G144" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G145" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G146" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N146">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G147" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N147">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G148" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N148">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G149" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N149">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G150" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N150">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G151" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N151">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D152" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G152" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N152">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D153" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G153" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N153">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G154" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N154">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D155" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G155" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N155">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D156" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G156" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N156">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D157" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G157" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N157">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D158" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G158" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N158">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D159" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G159" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N159">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D160" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G160" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N160">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D161" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G161" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N161">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D162" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G162" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N162">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D163" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G163" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N163">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D164" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G164" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N164">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D165" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G165" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N165">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D166" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G166" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N166">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D167" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G167" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N167">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D168" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G168" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N168">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D169" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G169" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N169">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G170" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N170">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D171" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G171" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D172" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G172" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N172">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D173" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G173" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D174" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G174" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N174">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D175" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G175" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N175">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D176" s="6" t="str">
-        <f t="shared" ref="D176:D185" si="11">IF((N176)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G176" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N176">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D177" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G177" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N177">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D178" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G178" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N178">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D179" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G179" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D180" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G180" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N180">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D181" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G181" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N181">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D182" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G182" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D183" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G183" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D184" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G184" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D185" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G185" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D186" s="6" t="str">
-        <f t="shared" ref="D186" si="12">IF((N186)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G186" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1302,8 +1302,8 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,16 +1429,37 @@
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>0</v>
+        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1451,19 +1472,37 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="H4">
         <v>13</v>
       </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,10 +1515,28 @@
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -1487,8 +1544,8 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,16 +1558,37 @@
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,15 +1601,27 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1545,16 +1635,37 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1567,16 +1678,34 @@
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1589,16 +1718,37 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,16 +1761,37 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,13 +1804,28 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H12">
         <v>18</v>
       </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -1647,8 +1833,8 @@
         <v>10</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1661,15 +1847,27 @@
       <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,16 +1881,34 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,15 +1921,27 @@
       <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1727,16 +1955,37 @@
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1749,15 +1998,27 @@
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1771,19 +2032,37 @@
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
       <c r="H18">
         <v>16</v>
       </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1796,16 +2075,37 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,15 +2118,27 @@
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1840,16 +2152,34 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,19 +2192,37 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="H22">
         <v>17</v>
       </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,19 +2235,37 @@
       <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H23">
         <v>12</v>
       </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1912,13 +2278,28 @@
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
       <c r="H24">
         <v>17</v>
       </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
@@ -1926,8 +2307,8 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1940,19 +2321,37 @@
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
       <c r="H25">
         <v>17</v>
       </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,15 +2364,27 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1987,19 +2398,37 @@
       <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="H27">
         <v>12</v>
       </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,16 +2441,37 @@
       <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2034,16 +2484,37 @@
       <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,16 +2527,31 @@
       <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,16 +2564,37 @@
       <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2100,16 +2607,37 @@
       <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,16 +2650,37 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,16 +2693,37 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2166,10 +2736,25 @@
       <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
@@ -2177,8 +2762,8 @@
         <v>40</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2191,16 +2776,34 @@
       <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,19 +2816,37 @@
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H37">
         <v>18</v>
       </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,19 +2859,34 @@
       <c r="C38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H38">
         <v>13</v>
       </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,16 +2899,37 @@
       <c r="C39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
       <c r="N39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,19 +2942,34 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H40">
         <v>13</v>
       </c>
+      <c r="J40">
+        <v>14</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2310,15 +2982,27 @@
       <c r="C41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2332,16 +3016,37 @@
       <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
       <c r="N42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2354,16 +3059,34 @@
       <c r="C43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
       <c r="N43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,16 +3099,37 @@
       <c r="C44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>40</v>
+      </c>
       <c r="N44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,16 +3142,37 @@
       <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45">
+        <v>40</v>
+      </c>
       <c r="N45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2420,15 +3185,27 @@
       <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2442,15 +3219,27 @@
       <c r="C47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2464,19 +3253,37 @@
       <c r="C48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H48">
         <v>16</v>
       </c>
+      <c r="J48">
+        <v>16</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
+      <c r="L48">
+        <v>40</v>
+      </c>
       <c r="N48">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,16 +3296,37 @@
       <c r="C49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
       <c r="N49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,13 +3339,28 @@
       <c r="C50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H50">
         <v>17</v>
       </c>
+      <c r="J50">
+        <v>14</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
@@ -2525,8 +3368,8 @@
         <v>40</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,19 +3382,34 @@
       <c r="C51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
+      <c r="D51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H51">
         <v>14</v>
       </c>
+      <c r="J51">
+        <v>14</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2564,19 +3422,34 @@
       <c r="C52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
+      <c r="D52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H52">
         <v>18</v>
       </c>
+      <c r="J52">
+        <v>14</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,16 +3462,37 @@
       <c r="C53" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
+      <c r="D53" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>18</v>
+      </c>
+      <c r="J53">
+        <v>18</v>
+      </c>
       <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
       <c r="N53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,16 +3505,37 @@
       <c r="C54" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54">
+        <v>40</v>
+      </c>
       <c r="N54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,13 +3548,28 @@
       <c r="C55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H55">
         <v>14</v>
       </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
@@ -2647,8 +3577,8 @@
         <v>40</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,19 +3591,37 @@
       <c r="C56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
+      <c r="D56" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H56">
         <v>18</v>
       </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
+      <c r="L56">
+        <v>40</v>
+      </c>
       <c r="N56">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,19 +3634,34 @@
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H57">
         <v>17</v>
       </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,19 +3674,37 @@
       <c r="C58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
+      <c r="D58" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H58">
         <v>17</v>
       </c>
+      <c r="J58">
+        <v>14</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
+      <c r="L58">
+        <v>40</v>
+      </c>
       <c r="N58">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2736,16 +3717,34 @@
       <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G59" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="L59">
+        <v>40</v>
+      </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2758,16 +3757,34 @@
       <c r="C60" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
+      <c r="L60">
+        <v>40</v>
+      </c>
       <c r="N60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2780,16 +3797,37 @@
       <c r="C61" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="J61">
+        <v>16</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>40</v>
+      </c>
       <c r="N61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2802,16 +3840,37 @@
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
+      <c r="D62" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+      <c r="J62">
+        <v>18</v>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
+      <c r="L62">
+        <v>40</v>
+      </c>
       <c r="N62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2824,19 +3883,37 @@
       <c r="C63" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
+      <c r="D63" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H63">
         <v>17</v>
       </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63">
+        <v>40</v>
+      </c>
       <c r="N63">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,13 +3926,28 @@
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H64">
         <v>14</v>
       </c>
+      <c r="J64">
+        <v>11</v>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
@@ -2863,8 +3955,8 @@
         <v>40</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,10 +3969,28 @@
       <c r="C65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
@@ -2888,8 +3998,8 @@
         <v>40</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,13 +4012,28 @@
       <c r="C66" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H66">
         <v>17</v>
       </c>
+      <c r="J66">
+        <v>14</v>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
@@ -2916,8 +4041,8 @@
         <v>40</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2930,13 +4055,28 @@
       <c r="C67" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
+      <c r="D67" s="6">
+        <f t="shared" ref="D67:D116" si="5">IF((N67)&gt;=50,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E116" si="6">IF((N67)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F116" si="7">IF((N67)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G116" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <v>24</v>
+      </c>
       <c r="H67">
         <v>18</v>
       </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
@@ -2944,8 +4084,8 @@
         <v>40</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N116" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>58</v>
+        <f t="shared" ref="N67:N116" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2958,13 +4098,28 @@
       <c r="C68" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H68">
         <v>14</v>
       </c>
+      <c r="J68">
+        <v>14</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
@@ -2972,8 +4127,8 @@
         <v>40</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2986,13 +4141,28 @@
       <c r="C69" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
+      <c r="D69" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
       <c r="H69">
         <v>14</v>
       </c>
+      <c r="J69">
+        <v>18</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
@@ -3000,8 +4170,8 @@
         <v>40</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3014,19 +4184,37 @@
       <c r="C70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
+      <c r="D70" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="H70">
         <v>18</v>
       </c>
+      <c r="J70">
+        <v>16</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
+      <c r="L70">
+        <v>40</v>
+      </c>
       <c r="N70">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,16 +4227,37 @@
       <c r="C71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
+      <c r="D71" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H71">
+        <v>13</v>
+      </c>
+      <c r="J71">
+        <v>18</v>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
+      <c r="L71">
+        <v>40</v>
+      </c>
       <c r="N71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,16 +4270,37 @@
       <c r="C72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H72">
+        <v>18</v>
+      </c>
+      <c r="J72">
+        <v>14</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
+      <c r="L72">
+        <v>40</v>
+      </c>
       <c r="N72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3083,19 +4313,37 @@
       <c r="C73" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
       <c r="H73">
         <v>13</v>
       </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
+      <c r="L73">
+        <v>40</v>
+      </c>
       <c r="N73">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,16 +4356,31 @@
       <c r="C74" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J74">
+        <v>14</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3130,13 +4393,28 @@
       <c r="C75" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H75">
         <v>17</v>
       </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
@@ -3144,8 +4422,8 @@
         <v>40</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3158,16 +4436,31 @@
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G76" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3180,19 +4473,37 @@
       <c r="C77" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="6"/>
+      <c r="D77" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H77">
         <v>17</v>
       </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
+      <c r="L77">
+        <v>40</v>
+      </c>
       <c r="N77">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,13 +4516,28 @@
       <c r="C78" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="6"/>
+      <c r="D78" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
       <c r="H78">
         <v>18</v>
       </c>
+      <c r="J78">
+        <v>14</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
@@ -3219,8 +4545,8 @@
         <v>40</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3233,15 +4559,27 @@
       <c r="C79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3255,19 +4593,37 @@
       <c r="C80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="6"/>
+      <c r="D80" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H80">
         <v>13</v>
       </c>
+      <c r="J80">
+        <v>16</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
+      <c r="L80">
+        <v>40</v>
+      </c>
       <c r="N80">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,16 +4636,37 @@
       <c r="C81" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>18</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
+      <c r="L81">
+        <v>40</v>
+      </c>
       <c r="N81">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3302,19 +4679,37 @@
       <c r="C82" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
       <c r="H82">
         <v>17</v>
       </c>
+      <c r="J82">
+        <v>14</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
+      <c r="L82">
+        <v>40</v>
+      </c>
       <c r="N82">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,19 +4722,37 @@
       <c r="C83" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="6"/>
+      <c r="D83" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
       <c r="H83">
         <v>17</v>
       </c>
+      <c r="J83">
+        <v>16</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="L83">
+        <v>40</v>
+      </c>
       <c r="N83">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3352,16 +4765,37 @@
       <c r="C84" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="6"/>
+      <c r="D84" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>13</v>
+      </c>
+      <c r="J84">
+        <v>18</v>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
+      <c r="L84">
+        <v>40</v>
+      </c>
       <c r="N84">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3374,15 +4808,27 @@
       <c r="C85" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="6"/>
+      <c r="D85" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3396,19 +4842,37 @@
       <c r="C86" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="6"/>
+      <c r="D86" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H86">
         <v>12</v>
       </c>
+      <c r="J86">
+        <v>14</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
+      <c r="L86">
+        <v>40</v>
+      </c>
       <c r="N86">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,19 +4885,37 @@
       <c r="C87" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="6"/>
+      <c r="D87" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="H87">
         <v>16</v>
       </c>
+      <c r="J87">
+        <v>16</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
+      <c r="L87">
+        <v>32</v>
+      </c>
       <c r="N87">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3446,16 +4928,37 @@
       <c r="C88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="6"/>
+      <c r="D88" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+      <c r="J88">
+        <v>14</v>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
+      <c r="L88">
+        <v>40</v>
+      </c>
       <c r="N88">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3468,16 +4971,37 @@
       <c r="C89" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="6"/>
+      <c r="D89" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <v>18</v>
+      </c>
       <c r="K89">
         <v>1</v>
       </c>
+      <c r="L89">
+        <v>38</v>
+      </c>
       <c r="N89">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,16 +5014,37 @@
       <c r="C90" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="6"/>
+      <c r="D90" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="J90">
+        <v>14</v>
+      </c>
       <c r="K90">
         <v>1</v>
       </c>
+      <c r="L90">
+        <v>40</v>
+      </c>
       <c r="N90">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,19 +5057,37 @@
       <c r="C91" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="6"/>
+      <c r="D91" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H91">
         <v>16</v>
       </c>
+      <c r="J91">
+        <v>14</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
+      <c r="L91">
+        <v>40</v>
+      </c>
       <c r="N91">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3537,16 +5100,34 @@
       <c r="C92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="6"/>
+      <c r="D92" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G92" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="J92">
+        <v>9</v>
+      </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,19 +5140,37 @@
       <c r="C93" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="6"/>
+      <c r="D93" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
       <c r="H93">
         <v>18</v>
       </c>
+      <c r="J93">
+        <v>18</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
+      <c r="L93">
+        <v>40</v>
+      </c>
       <c r="N93">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3584,19 +5183,37 @@
       <c r="C94" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
       <c r="H94">
         <v>17</v>
       </c>
+      <c r="J94">
+        <v>16</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
+      <c r="L94">
+        <v>40</v>
+      </c>
       <c r="N94">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3609,13 +5226,28 @@
       <c r="C95" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="6"/>
+      <c r="D95" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
       <c r="H95">
         <v>17</v>
       </c>
+      <c r="J95">
+        <v>16</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
@@ -3623,8 +5255,8 @@
         <v>40</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,19 +5269,37 @@
       <c r="C96" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="6"/>
+      <c r="D96" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
       <c r="H96">
         <v>17</v>
       </c>
+      <c r="J96">
+        <v>18</v>
+      </c>
       <c r="K96">
         <v>1</v>
       </c>
+      <c r="L96">
+        <v>40</v>
+      </c>
       <c r="N96">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3662,19 +5312,37 @@
       <c r="C97" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="6"/>
+      <c r="D97" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
       <c r="H97">
         <v>17</v>
       </c>
+      <c r="J97">
+        <v>18</v>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
+      <c r="L97">
+        <v>40</v>
+      </c>
       <c r="N97">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3687,19 +5355,37 @@
       <c r="C98" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="6"/>
+      <c r="D98" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="H98">
         <v>17</v>
       </c>
+      <c r="J98">
+        <v>18</v>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
+      <c r="L98">
+        <v>26</v>
+      </c>
       <c r="N98">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,13 +5398,28 @@
       <c r="C99" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="6"/>
+      <c r="D99" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="H99">
         <v>17</v>
       </c>
+      <c r="J99">
+        <v>17</v>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
@@ -3726,8 +5427,8 @@
         <v>40</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3740,16 +5441,37 @@
       <c r="C100" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="6"/>
+      <c r="D100" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="H100">
+        <v>15</v>
+      </c>
+      <c r="J100">
+        <v>20</v>
+      </c>
       <c r="K100">
         <v>1</v>
       </c>
+      <c r="L100">
+        <v>40</v>
+      </c>
       <c r="N100">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3762,13 +5484,28 @@
       <c r="C101" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="6"/>
+      <c r="D101" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H101">
         <v>17</v>
       </c>
+      <c r="J101">
+        <v>11</v>
+      </c>
       <c r="K101">
         <v>1</v>
       </c>
@@ -3776,8 +5513,8 @@
         <v>40</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,13 +5527,28 @@
       <c r="C102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="6"/>
+      <c r="D102" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H102">
         <v>17</v>
       </c>
+      <c r="J102">
+        <v>9</v>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
@@ -3804,8 +5556,8 @@
         <v>40</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3818,19 +5570,37 @@
       <c r="C103" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="6"/>
+      <c r="D103" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H103">
         <v>12</v>
       </c>
+      <c r="J103">
+        <v>14</v>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
+      <c r="L103">
+        <v>40</v>
+      </c>
       <c r="N103">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3843,19 +5613,37 @@
       <c r="C104" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="6"/>
+      <c r="D104" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
       <c r="H104">
         <v>18</v>
       </c>
+      <c r="J104">
+        <v>18</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
+      <c r="L104">
+        <v>40</v>
+      </c>
       <c r="N104">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3868,19 +5656,37 @@
       <c r="C105" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="6"/>
+      <c r="D105" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
       <c r="H105">
         <v>18</v>
       </c>
+      <c r="J105">
+        <v>14</v>
+      </c>
       <c r="K105">
         <v>1</v>
       </c>
+      <c r="L105">
+        <v>40</v>
+      </c>
       <c r="N105">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3893,19 +5699,37 @@
       <c r="C106" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="6"/>
+      <c r="D106" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H106">
         <v>13</v>
       </c>
+      <c r="J106">
+        <v>16</v>
+      </c>
       <c r="K106">
         <v>1</v>
       </c>
+      <c r="L106">
+        <v>40</v>
+      </c>
       <c r="N106">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,16 +5742,37 @@
       <c r="C107" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="6"/>
+      <c r="D107" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
       <c r="K107">
         <v>1</v>
       </c>
+      <c r="L107">
+        <v>40</v>
+      </c>
       <c r="N107">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3940,19 +5785,37 @@
       <c r="C108" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="6"/>
+      <c r="D108" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="H108">
         <v>16</v>
       </c>
+      <c r="J108">
+        <v>18</v>
+      </c>
       <c r="K108">
         <v>1</v>
       </c>
+      <c r="L108">
+        <v>40</v>
+      </c>
       <c r="N108">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3965,13 +5828,28 @@
       <c r="C109" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="6"/>
+      <c r="D109" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H109">
         <v>17</v>
       </c>
+      <c r="J109">
+        <v>12</v>
+      </c>
       <c r="K109">
         <v>1</v>
       </c>
@@ -3979,8 +5857,8 @@
         <v>40</v>
       </c>
       <c r="N109">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3993,16 +5871,34 @@
       <c r="C110" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="6"/>
+      <c r="D110" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>16</v>
+      </c>
       <c r="K110">
         <v>1</v>
       </c>
+      <c r="L110">
+        <v>40</v>
+      </c>
       <c r="N110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4015,15 +5911,27 @@
       <c r="C111" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="6"/>
+      <c r="D111" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G111" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="N111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4037,19 +5945,37 @@
       <c r="C112" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="6"/>
+      <c r="D112" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H112">
         <v>16</v>
       </c>
+      <c r="J112">
+        <v>14</v>
+      </c>
       <c r="K112">
         <v>1</v>
       </c>
+      <c r="L112">
+        <v>40</v>
+      </c>
       <c r="N112">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4062,16 +5988,37 @@
       <c r="C113" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="6"/>
+      <c r="D113" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="H113">
+        <v>12</v>
+      </c>
+      <c r="J113">
+        <v>9</v>
+      </c>
       <c r="K113">
         <v>1</v>
       </c>
+      <c r="L113">
+        <v>40</v>
+      </c>
       <c r="N113">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4084,16 +6031,34 @@
       <c r="C114" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="6"/>
+      <c r="D114" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G114" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H114">
+        <v>12</v>
+      </c>
+      <c r="J114">
+        <v>20</v>
+      </c>
       <c r="K114">
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4106,16 +6071,37 @@
       <c r="C115" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="6"/>
+      <c r="D115" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H115">
+        <v>14</v>
+      </c>
+      <c r="J115">
+        <v>14</v>
+      </c>
       <c r="K115">
         <v>1</v>
       </c>
+      <c r="L115">
+        <v>40</v>
+      </c>
       <c r="N115">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4128,19 +6114,37 @@
       <c r="C116" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="6"/>
+      <c r="D116" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H116">
         <v>13</v>
       </c>
+      <c r="J116">
+        <v>14</v>
+      </c>
       <c r="K116">
         <v>1</v>
       </c>
+      <c r="L116">
+        <v>40</v>
+      </c>
       <c r="N116">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1303,7 +1303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D116"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1804,21 +1804,21 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>18</v>
@@ -1830,11 +1830,11 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -755,6 +755,15 @@
   </si>
   <si>
     <t>EGGY A. DE LEON G</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>14-SISM-1-096</t>
+  </si>
+  <si>
+    <t>Ronny Cueva Vasquez</t>
   </si>
 </sst>
 </file>
@@ -868,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -896,6 +905,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,11 +1311,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1881,21 +1893,21 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -1906,9 +1918,12 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,21 +2957,21 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6" t="str">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G40" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G40" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="H40">
         <v>13</v>
@@ -2967,9 +2982,12 @@
       <c r="K40">
         <v>1</v>
       </c>
+      <c r="L40">
+        <v>36</v>
+      </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3422,21 +3440,21 @@
       <c r="C52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="6" t="str">
+      <c r="D52" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E52" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F52" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G52" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="H52">
         <v>18</v>
@@ -3447,9 +3465,12 @@
       <c r="K52">
         <v>1</v>
       </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,19 +4077,19 @@
         <v>145</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D116" si="5">IF((N67)&gt;=50,10,"")</f>
+        <f t="shared" ref="D67:D119" si="5">IF((N67)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E116" si="6">IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" ref="E67:E119" si="6">IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F116" si="7">IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" ref="F67:F119" si="7">IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G116" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" ref="G67:G119" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H67">
@@ -5100,21 +5121,21 @@
       <c r="C92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E92" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F92" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G92" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G92" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="H92">
         <v>13</v>
@@ -5125,9 +5146,12 @@
       <c r="K92">
         <v>1</v>
       </c>
+      <c r="L92">
+        <v>35</v>
+      </c>
       <c r="N92">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6031,21 +6055,21 @@
       <c r="C114" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="6" t="str">
+      <c r="D114" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E114" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F114" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F114" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G114" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G114" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H114">
         <v>12</v>
@@ -6056,9 +6080,12 @@
       <c r="K114">
         <v>1</v>
       </c>
+      <c r="L114">
+        <v>35</v>
+      </c>
       <c r="N114">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6115,19 +6142,19 @@
         <v>243</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N116)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N116)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N116)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N116)&gt;=51,IF((N116-50)&gt;50,50,IF((N116-50)&lt;0,0,(N116-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H116">
@@ -6143,8 +6170,92 @@
         <v>40</v>
       </c>
       <c r="N116">
-        <f t="shared" si="9"/>
+        <f>IF((H116+J116+L116+M116+O116)&lt;70,IF((H116+J116+L116+M116+O116)&gt;64,70,(H116+J116+L116+M116+O116)),(H116+J116+L116+M116+O116))</f>
         <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D117" s="6" t="str">
+        <f>IF((N117)&gt;=50,10,"")</f>
+        <v/>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f>IF((N117)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f>IF((N117)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="G117" s="6" t="str">
+        <f>IF((N117)&gt;=51,IF((N117-50)&gt;50,50,IF((N117-50)&lt;0,0,(N117-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="N117">
+        <f t="shared" ref="N117:N119" si="10">IF((H117+J117+L117+M117+O117)&lt;70,IF((H117+J117+L117+M117+O117)&gt;64,70,(H117+J117+L117+M117+O117)),(H117+J117+L117+M117+O117))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B118" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G118" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B119" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="H119">
+        <v>18</v>
+      </c>
+      <c r="J119">
+        <v>16</v>
+      </c>
+      <c r="L119">
+        <v>40</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="10"/>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1314,8 +1314,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2791,21 +2791,21 @@
       <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6" t="str">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G36" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>17</v>
@@ -2816,9 +2816,12 @@
       <c r="K36">
         <v>1</v>
       </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,7 +4108,7 @@
         <v>40</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N116" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" ref="N67:N115" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>74</v>
       </c>
     </row>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="248">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -61,9 +61,6 @@
     <t>CF.105</t>
   </si>
   <si>
-    <t>Extras.5</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -764,6 +761,12 @@
   </si>
   <si>
     <t>Ronny Cueva Vasquez</t>
+  </si>
+  <si>
+    <t>Extras.</t>
+  </si>
+  <si>
+    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
   </si>
 </sst>
 </file>
@@ -1311,11 +1314,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1339,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1360,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1378,10 +1381,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1431,15 +1434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
@@ -1474,15 +1477,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
@@ -1517,15 +1520,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
@@ -1560,15 +1563,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
@@ -1603,15 +1606,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1637,15 +1640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
@@ -1680,15 +1683,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
@@ -1720,15 +1723,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
@@ -1763,15 +1766,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
@@ -1806,15 +1809,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
@@ -1830,7 +1833,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>18</v>
@@ -1846,18 +1849,24 @@
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="O12">
+        <v>-5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1883,15 +1892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
@@ -1926,15 +1935,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1960,15 +1969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
@@ -2003,15 +2012,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2037,15 +2046,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
@@ -2061,7 +2070,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -2077,18 +2086,24 @@
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="O18">
+        <v>-5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
@@ -2123,15 +2138,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2157,15 +2172,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
@@ -2181,7 +2196,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -2192,20 +2207,23 @@
       <c r="L21">
         <v>40</v>
       </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
@@ -2240,15 +2258,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
@@ -2283,15 +2301,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
@@ -2326,15 +2344,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
@@ -2369,15 +2387,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2403,15 +2421,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
@@ -2446,15 +2464,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
@@ -2489,15 +2507,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
@@ -2532,15 +2550,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2569,15 +2587,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
@@ -2612,15 +2630,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
@@ -2655,15 +2673,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
@@ -2698,15 +2716,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
@@ -2741,31 +2759,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="D35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E35" s="2">
+        <v/>
+      </c>
+      <c r="E35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F35" s="2">
+        <v/>
+      </c>
+      <c r="F35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G35" s="6">
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="J35">
         <v>14</v>
@@ -2778,18 +2796,24 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="O35">
+        <v>-5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
@@ -2805,7 +2829,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>17</v>
@@ -2821,18 +2845,24 @@
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>-5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
@@ -2867,15 +2897,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2907,15 +2937,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
@@ -2950,15 +2980,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
@@ -2993,15 +3023,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3027,15 +3057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
@@ -3070,15 +3100,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
@@ -3110,15 +3140,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
@@ -3153,15 +3183,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
@@ -3196,15 +3226,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3230,15 +3260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3264,15 +3294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
@@ -3312,10 +3342,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
@@ -3355,10 +3385,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
@@ -3398,10 +3428,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3438,10 +3468,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
@@ -3481,10 +3511,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
@@ -3524,10 +3554,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
@@ -3567,10 +3597,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
@@ -3610,10 +3640,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
@@ -3653,10 +3683,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3693,10 +3723,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
@@ -3736,10 +3766,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D59" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3776,10 +3806,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
@@ -3816,10 +3846,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
@@ -3859,10 +3889,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
@@ -3902,10 +3932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
@@ -3945,10 +3975,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
@@ -3988,10 +4018,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
@@ -4031,10 +4061,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
@@ -4074,10 +4104,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D119" si="5">IF((N67)&gt;=50,10,"")</f>
@@ -4117,10 +4147,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="5"/>
@@ -4160,10 +4190,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="5"/>
@@ -4203,10 +4233,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="5"/>
@@ -4246,10 +4276,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="5"/>
@@ -4265,7 +4295,7 @@
       </c>
       <c r="G71" s="6">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>13</v>
@@ -4279,9 +4309,12 @@
       <c r="L71">
         <v>40</v>
       </c>
+      <c r="M71">
+        <v>15</v>
+      </c>
       <c r="N71">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4289,10 +4322,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="5"/>
@@ -4332,10 +4365,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="5"/>
@@ -4375,10 +4408,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D74" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4412,10 +4445,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="5"/>
@@ -4455,10 +4488,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D76" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4492,10 +4525,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="5"/>
@@ -4535,10 +4568,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="5"/>
@@ -4578,10 +4611,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D79" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4612,10 +4645,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="5"/>
@@ -4650,15 +4683,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="5"/>
@@ -4693,15 +4726,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="5"/>
@@ -4736,15 +4769,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="5"/>
@@ -4779,15 +4812,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="5"/>
@@ -4803,7 +4836,7 @@
       </c>
       <c r="G84" s="6">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H84">
         <v>13</v>
@@ -4819,18 +4852,24 @@
       </c>
       <c r="N84">
         <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="O84">
+        <v>-5</v>
+      </c>
+      <c r="P84" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D85" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4856,15 +4895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="5"/>
@@ -4899,15 +4938,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="5"/>
@@ -4942,15 +4981,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="5"/>
@@ -4985,15 +5024,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="5"/>
@@ -5028,15 +5067,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="5"/>
@@ -5052,7 +5091,7 @@
       </c>
       <c r="G90" s="6">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H90">
         <v>18</v>
@@ -5068,18 +5107,24 @@
       </c>
       <c r="N90">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="O90">
+        <v>-5</v>
+      </c>
+      <c r="P90" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="5"/>
@@ -5114,15 +5159,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="5"/>
@@ -5157,15 +5202,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="5"/>
@@ -5200,15 +5245,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="5"/>
@@ -5243,15 +5288,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="5"/>
@@ -5286,15 +5331,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="5"/>
@@ -5334,10 +5379,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="5"/>
@@ -5377,10 +5422,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="5"/>
@@ -5396,7 +5441,7 @@
       </c>
       <c r="G98" s="6">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>17</v>
@@ -5410,9 +5455,12 @@
       <c r="L98">
         <v>26</v>
       </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
       <c r="N98">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,10 +5468,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="5"/>
@@ -5463,10 +5511,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="5"/>
@@ -5506,10 +5554,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="5"/>
@@ -5549,10 +5597,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="5"/>
@@ -5592,10 +5640,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="5"/>
@@ -5635,10 +5683,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="5"/>
@@ -5678,10 +5726,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="5"/>
@@ -5721,10 +5769,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="5"/>
@@ -5764,10 +5812,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="5"/>
@@ -5807,10 +5855,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="5"/>
@@ -5850,10 +5898,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="5"/>
@@ -5893,10 +5941,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="5"/>
@@ -5933,10 +5981,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D111" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5967,10 +6015,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="5"/>
@@ -6010,10 +6058,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="5"/>
@@ -6053,10 +6101,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="5"/>
@@ -6096,10 +6144,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="5"/>
@@ -6139,10 +6187,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="D116" s="6">
         <f>IF((N116)&gt;=50,10,"")</f>
@@ -6201,7 +6249,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B118" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D118" s="6" t="str">
         <f t="shared" si="5"/>
@@ -6226,10 +6274,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B119" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="5"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>Extras.</t>
-  </si>
-  <si>
-    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
   </si>
 </sst>
 </file>
@@ -1314,11 +1311,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M98" sqref="M98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1336,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1384,7 +1381,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1683,7 +1680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1809,7 +1806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>18</v>
@@ -1849,16 +1846,10 @@
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-      <c r="O12">
-        <v>-5</v>
-      </c>
-      <c r="P12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1892,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1935,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1969,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2012,7 +2003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2046,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2070,7 +2061,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -2086,16 +2077,10 @@
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="O18">
-        <v>-5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2138,7 +2123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2172,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2215,7 +2200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2258,7 +2243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2301,7 +2286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2344,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -2387,7 +2372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -2421,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -2464,7 +2449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -2507,7 +2492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -2550,7 +2535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -2587,7 +2572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -2630,7 +2615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -2673,7 +2658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -2716,7 +2701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -2759,7 +2744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2769,21 +2754,21 @@
       <c r="C35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="6" t="str">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G35" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>14</v>
@@ -2796,16 +2781,10 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="O35">
-        <v>-5</v>
-      </c>
-      <c r="P35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2829,7 +2808,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>17</v>
@@ -2845,16 +2824,10 @@
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="O36">
-        <v>-5</v>
-      </c>
-      <c r="P36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2897,7 +2870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2937,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2980,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -3023,7 +2996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -3057,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -3100,7 +3073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -3140,7 +3113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -3183,7 +3156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -3226,7 +3199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -3260,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -3294,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -4683,7 +4656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -4726,7 +4699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -4769,7 +4742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>81</v>
       </c>
@@ -4812,7 +4785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -4836,7 +4809,7 @@
       </c>
       <c r="G84" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84">
         <v>13</v>
@@ -4852,16 +4825,10 @@
       </c>
       <c r="N84">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="O84">
-        <v>-5</v>
-      </c>
-      <c r="P84" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -4895,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -4938,7 +4905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -4981,7 +4948,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -5024,7 +4991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>87</v>
       </c>
@@ -5067,7 +5034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -5091,7 +5058,7 @@
       </c>
       <c r="G90" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H90">
         <v>18</v>
@@ -5107,16 +5074,10 @@
       </c>
       <c r="N90">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="O90">
-        <v>-5</v>
-      </c>
-      <c r="P90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -5159,7 +5120,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -5202,7 +5163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -5245,7 +5206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -5288,7 +5249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -5331,7 +5292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>94</v>
       </c>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54E14047-1DAF-40DB-8B35-68CC5E7F338D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -769,7 +770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1307,18 +1308,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4437,7 +4438,7 @@
       </c>
       <c r="G75" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>17</v>
@@ -4451,9 +4452,12 @@
       <c r="L75">
         <v>40</v>
       </c>
+      <c r="M75">
+        <v>25</v>
+      </c>
       <c r="N75">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5878,7 +5882,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>17</v>
@@ -5892,9 +5896,12 @@
       <c r="L109">
         <v>40</v>
       </c>
+      <c r="M109">
+        <v>25</v>
+      </c>
       <c r="N109">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6271,7 +6278,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54E14047-1DAF-40DB-8B35-68CC5E7F338D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2024E26-2C46-40AB-B212-C8D254F130D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,8 +1315,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G45" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>17</v>
@@ -3195,9 +3195,12 @@
       <c r="L45">
         <v>40</v>
       </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
       <c r="N45">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2024E26-2C46-40AB-B212-C8D254F130D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -770,7 +769,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1308,18 +1307,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1499,7 +1498,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -1513,9 +1512,12 @@
       <c r="L4">
         <v>40</v>
       </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,7 +1747,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>18</v>
@@ -1759,9 +1761,12 @@
       <c r="L10">
         <v>40</v>
       </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,7 +2522,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -2531,9 +2536,12 @@
       <c r="L29">
         <v>40</v>
       </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2691,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>20</v>
@@ -2697,9 +2705,12 @@
       <c r="L33">
         <v>40</v>
       </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,7 +2820,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>17</v>
@@ -2823,9 +2834,12 @@
       <c r="L36">
         <v>34</v>
       </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,21 +2895,21 @@
       <c r="C38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="6" t="str">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G38" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="H38">
         <v>13</v>
@@ -2906,9 +2920,15 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,7 +3075,7 @@
       </c>
       <c r="G42" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H42">
         <v>18</v>
@@ -3069,9 +3089,12 @@
       <c r="L42">
         <v>40</v>
       </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3748,21 +3771,21 @@
       <c r="C59" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="6" t="str">
+      <c r="D59" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G59" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="J59">
         <v>8</v>
@@ -3773,9 +3796,12 @@
       <c r="L59">
         <v>40</v>
       </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,7 +4083,7 @@
       </c>
       <c r="G66" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H66">
         <v>17</v>
@@ -4071,9 +4097,12 @@
       <c r="L66">
         <v>40</v>
       </c>
+      <c r="M66">
+        <v>30</v>
+      </c>
       <c r="N66">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4172,7 @@
       </c>
       <c r="G68" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H68">
         <v>14</v>
@@ -4157,9 +4186,12 @@
       <c r="L68">
         <v>40</v>
       </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
       <c r="N68">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4412,9 +4444,12 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="M74">
+        <v>20</v>
+      </c>
       <c r="N74">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4567,7 +4602,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H78">
         <v>18</v>
@@ -4581,9 +4616,12 @@
       <c r="L78">
         <v>40</v>
       </c>
+      <c r="M78">
+        <v>30</v>
+      </c>
       <c r="N78">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4644,7 +4682,7 @@
       </c>
       <c r="G80" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H80">
         <v>13</v>
@@ -4658,9 +4696,12 @@
       <c r="L80">
         <v>40</v>
       </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
       <c r="N80">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,7 +5582,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H101">
         <v>17</v>
@@ -5555,9 +5596,12 @@
       <c r="L101">
         <v>40</v>
       </c>
+      <c r="M101">
+        <v>30</v>
+      </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5931,7 +5975,7 @@
       </c>
       <c r="G110" s="6">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J110">
         <v>16</v>
@@ -5942,9 +5986,12 @@
       <c r="L110">
         <v>40</v>
       </c>
+      <c r="M110">
+        <v>20</v>
+      </c>
       <c r="N110">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6005,7 +6052,7 @@
       </c>
       <c r="G112" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H112">
         <v>16</v>
@@ -6019,9 +6066,12 @@
       <c r="L112">
         <v>40</v>
       </c>
+      <c r="M112">
+        <v>30</v>
+      </c>
       <c r="N112">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6281,7 +6331,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1315,7 +1315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1314,8 +1314,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>18</v>
@@ -1762,11 +1762,11 @@
         <v>40</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="G60" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J60">
         <v>12</v>
@@ -3839,9 +3839,12 @@
       <c r="L60">
         <v>40</v>
       </c>
+      <c r="M60">
+        <v>28</v>
+      </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,7 +4774,7 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>17</v>
@@ -4785,9 +4788,12 @@
       <c r="L82">
         <v>40</v>
       </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
       <c r="N82">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2024E26-2C46-40AB-B212-C8D254F130D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -770,7 +769,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1308,18 +1307,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1499,7 +1498,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -1513,9 +1512,12 @@
       <c r="L4">
         <v>40</v>
       </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,7 +1747,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>18</v>
@@ -1759,9 +1761,12 @@
       <c r="L10">
         <v>40</v>
       </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,7 +2522,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -2531,9 +2536,12 @@
       <c r="L29">
         <v>40</v>
       </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2691,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>20</v>
@@ -2697,9 +2705,12 @@
       <c r="L33">
         <v>40</v>
       </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,7 +2820,7 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>17</v>
@@ -2823,9 +2834,12 @@
       <c r="L36">
         <v>34</v>
       </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,21 +2895,21 @@
       <c r="C38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="6" t="str">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G38" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="H38">
         <v>13</v>
@@ -2906,9 +2920,15 @@
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,7 +3075,7 @@
       </c>
       <c r="G42" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H42">
         <v>18</v>
@@ -3069,9 +3089,12 @@
       <c r="L42">
         <v>40</v>
       </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3748,21 +3771,21 @@
       <c r="C59" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="6" t="str">
+      <c r="D59" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G59" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="J59">
         <v>8</v>
@@ -3773,9 +3796,12 @@
       <c r="L59">
         <v>40</v>
       </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3802,7 +3828,7 @@
       </c>
       <c r="G60" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J60">
         <v>12</v>
@@ -3813,9 +3839,12 @@
       <c r="L60">
         <v>40</v>
       </c>
+      <c r="M60">
+        <v>28</v>
+      </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,7 +4086,7 @@
       </c>
       <c r="G66" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H66">
         <v>17</v>
@@ -4071,9 +4100,12 @@
       <c r="L66">
         <v>40</v>
       </c>
+      <c r="M66">
+        <v>30</v>
+      </c>
       <c r="N66">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,7 +4175,7 @@
       </c>
       <c r="G68" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H68">
         <v>14</v>
@@ -4157,9 +4189,12 @@
       <c r="L68">
         <v>40</v>
       </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
       <c r="N68">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4412,9 +4447,12 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="M74">
+        <v>20</v>
+      </c>
       <c r="N74">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4567,7 +4605,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H78">
         <v>18</v>
@@ -4581,9 +4619,12 @@
       <c r="L78">
         <v>40</v>
       </c>
+      <c r="M78">
+        <v>30</v>
+      </c>
       <c r="N78">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4644,7 +4685,7 @@
       </c>
       <c r="G80" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H80">
         <v>13</v>
@@ -4658,9 +4699,12 @@
       <c r="L80">
         <v>40</v>
       </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
       <c r="N80">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4730,7 +4774,7 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>17</v>
@@ -4744,9 +4788,12 @@
       <c r="L82">
         <v>40</v>
       </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
       <c r="N82">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,7 +5588,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H101">
         <v>17</v>
@@ -5555,9 +5602,12 @@
       <c r="L101">
         <v>40</v>
       </c>
+      <c r="M101">
+        <v>30</v>
+      </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5931,7 +5981,7 @@
       </c>
       <c r="G110" s="6">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J110">
         <v>16</v>
@@ -5942,9 +5992,12 @@
       <c r="L110">
         <v>40</v>
       </c>
+      <c r="M110">
+        <v>20</v>
+      </c>
       <c r="N110">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6005,7 +6058,7 @@
       </c>
       <c r="G112" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H112">
         <v>16</v>
@@ -6019,9 +6072,12 @@
       <c r="L112">
         <v>40</v>
       </c>
+      <c r="M112">
+        <v>30</v>
+      </c>
       <c r="N112">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6281,7 +6337,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4842F87F-EE3C-430C-B1DA-555134BCEDC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -769,7 +770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1307,18 +1308,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2067,7 +2068,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -2081,9 +2082,12 @@
       <c r="L18">
         <v>40</v>
       </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5327,7 +5331,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H95">
         <v>17</v>
@@ -5341,9 +5345,12 @@
       <c r="L95">
         <v>40</v>
       </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
       <c r="N95">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,7 +6344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4842F87F-EE3C-430C-B1DA-555134BCEDC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -770,7 +769,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1308,18 +1307,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M95" sqref="M95"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1991,7 +1990,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>17</v>
@@ -2005,9 +2004,12 @@
       <c r="L16">
         <v>40</v>
       </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,21 +3439,21 @@
       <c r="C51" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="6" t="str">
+      <c r="D51" s="6">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E51" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G51" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G51" s="6">
         <f t="shared" si="3"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H51">
         <v>14</v>
@@ -3462,9 +3464,12 @@
       <c r="K51">
         <v>1</v>
       </c>
+      <c r="L51">
+        <v>37</v>
+      </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3620,7 +3625,7 @@
       </c>
       <c r="G55" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>14</v>
@@ -3634,9 +3639,12 @@
       <c r="L55">
         <v>40</v>
       </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4987,7 +4995,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>16</v>
@@ -5001,9 +5009,12 @@
       <c r="L87">
         <v>32</v>
       </c>
+      <c r="M87">
+        <v>26</v>
+      </c>
       <c r="N87">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5116,7 +5127,7 @@
       </c>
       <c r="G90" s="6">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>18</v>
@@ -5130,9 +5141,12 @@
       <c r="L90">
         <v>40</v>
       </c>
+      <c r="M90">
+        <v>20</v>
+      </c>
       <c r="N90">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,7 +5302,7 @@
       </c>
       <c r="G94" s="6">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>17</v>
@@ -5302,9 +5316,12 @@
       <c r="L94">
         <v>40</v>
       </c>
+      <c r="M94">
+        <v>20</v>
+      </c>
       <c r="N94">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,7 +5437,7 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>17</v>
@@ -5434,9 +5451,12 @@
       <c r="L97">
         <v>40</v>
       </c>
+      <c r="M97">
+        <v>20</v>
+      </c>
       <c r="N97">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5856,7 +5876,7 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>17</v>
@@ -5870,9 +5890,12 @@
       <c r="L107">
         <v>40</v>
       </c>
+      <c r="M107">
+        <v>20</v>
+      </c>
       <c r="N107">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6367,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1314,8 +1314,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -877,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -909,6 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,8 +1315,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1442,19 +1443,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <f>IF((N3)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H3">
@@ -1470,7 +1471,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
         <v>72</v>
       </c>
     </row>
@@ -1485,19 +1486,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N4)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H4">
@@ -1516,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
         <v>103</v>
       </c>
     </row>
@@ -1531,19 +1532,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N5)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H5">
@@ -1559,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
         <v>71</v>
       </c>
     </row>
@@ -1574,19 +1575,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N6)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
         <v>14</v>
       </c>
       <c r="H6">
@@ -1602,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
         <v>64</v>
       </c>
     </row>
@@ -1617,26 +1618,27 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N7)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I7" s="13"/>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1651,19 +1653,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N8)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H8">
@@ -1679,7 +1681,7 @@
         <v>40</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
         <v>73</v>
       </c>
     </row>
@@ -1694,20 +1696,23 @@
         <v>28</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N9)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1718,9 +1723,12 @@
       <c r="L9">
         <v>40</v>
       </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>53</v>
+        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1734,19 +1742,19 @@
         <v>30</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N10)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H10">
@@ -1765,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
         <v>108</v>
       </c>
     </row>
@@ -1780,19 +1788,19 @@
         <v>32</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N11)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H11">
@@ -1808,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
         <v>74</v>
       </c>
     </row>
@@ -1823,19 +1831,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N12)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H12">
@@ -1851,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
         <v>70</v>
       </c>
     </row>
@@ -1866,26 +1874,26 @@
         <v>36</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N13)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G13" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
         <v/>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
         <v>0</v>
       </c>
     </row>
@@ -1900,19 +1908,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N14)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
         <v>4</v>
       </c>
       <c r="H14">
@@ -1928,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
         <v>54</v>
       </c>
     </row>
@@ -1943,26 +1951,26 @@
         <v>40</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N15)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G15" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
         <v/>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
         <v>0</v>
       </c>
     </row>
@@ -1977,19 +1985,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N16)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
         <v>45</v>
       </c>
       <c r="H16">
@@ -2008,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
         <v>95</v>
       </c>
     </row>
@@ -2023,26 +2031,26 @@
         <v>44</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N17)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G17" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
         <v/>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
         <v>0</v>
       </c>
     </row>
@@ -2057,19 +2065,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N18)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
         <v>49</v>
       </c>
       <c r="H18">
@@ -2088,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
         <v>99</v>
       </c>
     </row>
@@ -2103,19 +2111,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N19)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H19">
@@ -2131,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
         <v>71</v>
       </c>
     </row>
@@ -2146,26 +2154,26 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N20)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G20" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
         <v/>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,19 +2188,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N21)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
         <v>38</v>
       </c>
       <c r="J21">
@@ -2208,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
         <v>88</v>
       </c>
     </row>
@@ -2223,19 +2231,19 @@
         <v>54</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N22)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H22">
@@ -2251,7 +2259,7 @@
         <v>40</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
         <v>73</v>
       </c>
     </row>
@@ -2266,19 +2274,19 @@
         <v>56</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N23)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H23">
@@ -2294,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
         <v>70</v>
       </c>
     </row>
@@ -2309,19 +2317,19 @@
         <v>58</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N24)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="H24">
@@ -2337,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
         <v>77</v>
       </c>
     </row>
@@ -2352,19 +2360,19 @@
         <v>60</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N25)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H25">
@@ -2380,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
         <v>73</v>
       </c>
     </row>
@@ -2395,26 +2403,26 @@
         <v>62</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N26)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
         <v>0</v>
       </c>
     </row>
@@ -2429,20 +2437,20 @@
         <v>64</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N27)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -2456,9 +2464,12 @@
       <c r="L27">
         <v>40</v>
       </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
       <c r="N27">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2472,19 +2483,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N28)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2500,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
         <v>70</v>
       </c>
     </row>
@@ -2515,19 +2526,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N29)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
         <v>44</v>
       </c>
       <c r="H29">
@@ -2546,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
         <v>94</v>
       </c>
     </row>
@@ -2561,19 +2572,19 @@
         <v>70</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N30)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
         <v/>
       </c>
       <c r="H30">
@@ -2583,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
         <v>20</v>
       </c>
     </row>
@@ -2598,19 +2609,19 @@
         <v>72</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N31)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H31">
@@ -2626,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
         <v>70</v>
       </c>
     </row>
@@ -2641,19 +2652,19 @@
         <v>74</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N32)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H32">
@@ -2669,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
         <v>72</v>
       </c>
     </row>
@@ -2684,19 +2695,19 @@
         <v>76</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N33)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H33">
@@ -2715,7 +2726,7 @@
         <v>30</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
         <v>101</v>
       </c>
     </row>
@@ -2730,19 +2741,19 @@
         <v>78</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2758,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2773,20 +2784,23 @@
         <v>80</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N35)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
       </c>
       <c r="J35">
         <v>14</v>
@@ -2797,9 +2811,12 @@
       <c r="L35">
         <v>40</v>
       </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
       <c r="N35">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,19 +2830,19 @@
         <v>82</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N36)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
         <v>45</v>
       </c>
       <c r="H36">
@@ -2844,7 +2861,7 @@
         <v>30</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
         <v>95</v>
       </c>
     </row>
@@ -2859,19 +2876,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N37)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H37">
@@ -2887,7 +2904,7 @@
         <v>40</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
         <v>72</v>
       </c>
     </row>
@@ -2902,19 +2919,19 @@
         <v>86</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N38)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H38">
@@ -2933,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
         <v>74</v>
       </c>
     </row>
@@ -2948,19 +2965,19 @@
         <v>88</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N39)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H39">
@@ -2976,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
         <v>70</v>
       </c>
     </row>
@@ -2991,19 +3008,19 @@
         <v>90</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N40)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
         <v>13</v>
       </c>
       <c r="H40">
@@ -3019,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
         <v>63</v>
       </c>
     </row>
@@ -3034,26 +3051,26 @@
         <v>92</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N41)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G41" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
         <v/>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
         <v>0</v>
       </c>
     </row>
@@ -3068,19 +3085,19 @@
         <v>94</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N42)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H42">
@@ -3099,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
+        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
         <v>103</v>
       </c>
     </row>
@@ -3114,20 +3131,23 @@
         <v>96</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N43)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
       </c>
       <c r="J43">
         <v>16</v>
@@ -3139,8 +3159,8 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,19 +3174,19 @@
         <v>98</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N44)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H44">
@@ -3182,7 +3202,7 @@
         <v>40</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
         <v>71</v>
       </c>
     </row>
@@ -3197,19 +3217,19 @@
         <v>100</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N45)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H45">
@@ -3228,7 +3248,7 @@
         <v>25</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
         <v>93</v>
       </c>
     </row>
@@ -3243,26 +3263,26 @@
         <v>102</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N46)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G46" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
         <v/>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
+        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
         <v>0</v>
       </c>
     </row>
@@ -3277,26 +3297,26 @@
         <v>104</v>
       </c>
       <c r="D47" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N47)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G47" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
         <v/>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
+        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
         <v>0</v>
       </c>
     </row>
@@ -3311,19 +3331,19 @@
         <v>106</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N48)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H48">
@@ -3339,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
+        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
         <v>72</v>
       </c>
     </row>
@@ -3354,19 +3374,19 @@
         <v>108</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N49)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H49">
@@ -3382,7 +3402,7 @@
         <v>40</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
         <v>70</v>
       </c>
     </row>
@@ -3397,19 +3417,19 @@
         <v>110</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N50)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H50">
@@ -3425,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
+        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
         <v>71</v>
       </c>
     </row>
@@ -3440,19 +3460,19 @@
         <v>112</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N51)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H51">
@@ -3468,7 +3488,7 @@
         <v>37</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
+        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
         <v>70</v>
       </c>
     </row>
@@ -3483,19 +3503,19 @@
         <v>114</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N52)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H52">
@@ -3511,7 +3531,7 @@
         <v>40</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
+        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
         <v>72</v>
       </c>
     </row>
@@ -3526,19 +3546,19 @@
         <v>116</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N53)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H53">
@@ -3554,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
+        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
         <v>76</v>
       </c>
     </row>
@@ -3569,19 +3589,19 @@
         <v>118</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N54)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H54">
@@ -3597,7 +3617,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
+        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
         <v>71</v>
       </c>
     </row>
@@ -3612,19 +3632,19 @@
         <v>120</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N55)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
         <v>42</v>
       </c>
       <c r="H55">
@@ -3643,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
+        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
         <v>92</v>
       </c>
     </row>
@@ -3658,19 +3678,19 @@
         <v>122</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N56)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3686,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="N56">
-        <f t="shared" si="4"/>
+        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
         <v>70</v>
       </c>
     </row>
@@ -3701,19 +3721,19 @@
         <v>124</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N57)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
         <v/>
       </c>
       <c r="H57">
@@ -3726,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="4"/>
+        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
         <v>31</v>
       </c>
     </row>
@@ -3741,19 +3761,19 @@
         <v>126</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N58)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H58">
@@ -3769,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="N58">
-        <f t="shared" si="4"/>
+        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
         <v>71</v>
       </c>
     </row>
@@ -3784,19 +3804,19 @@
         <v>128</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N59)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
         <v>28</v>
       </c>
       <c r="J59">
@@ -3812,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f t="shared" si="4"/>
+        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
         <v>78</v>
       </c>
     </row>
@@ -3827,19 +3847,19 @@
         <v>130</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N60)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
         <v>30</v>
       </c>
       <c r="J60">
@@ -3855,7 +3875,7 @@
         <v>28</v>
       </c>
       <c r="N60">
-        <f t="shared" si="4"/>
+        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
         <v>80</v>
       </c>
     </row>
@@ -3870,19 +3890,19 @@
         <v>132</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N61)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H61">
@@ -3898,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f t="shared" si="4"/>
+        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
         <v>71</v>
       </c>
     </row>
@@ -3913,19 +3933,19 @@
         <v>134</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N62)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H62">
@@ -3941,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f t="shared" si="4"/>
+        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
         <v>76</v>
       </c>
     </row>
@@ -3956,19 +3976,19 @@
         <v>136</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N63)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H63">
@@ -3984,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
         <v>70</v>
       </c>
     </row>
@@ -3999,19 +4019,19 @@
         <v>138</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N64)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H64">
@@ -4027,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
         <v>70</v>
       </c>
     </row>
@@ -4042,19 +4062,19 @@
         <v>140</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N65)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H65">
@@ -4070,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
         <v>70</v>
       </c>
     </row>
@@ -4085,19 +4105,19 @@
         <v>142</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N66)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H66">
@@ -4116,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>101</v>
       </c>
     </row>
@@ -4131,19 +4151,19 @@
         <v>144</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D119" si="5">IF((N67)&gt;=50,10,"")</f>
+        <f>IF((N67)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E119" si="6">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F119" si="7">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G119" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H67">
@@ -4159,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N115" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>74</v>
       </c>
     </row>
@@ -4174,19 +4194,19 @@
         <v>146</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N68)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
         <v>48</v>
       </c>
       <c r="H68">
@@ -4205,7 +4225,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
+        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
         <v>98</v>
       </c>
     </row>
@@ -4220,19 +4240,19 @@
         <v>148</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N69)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H69">
@@ -4248,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
+        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
         <v>72</v>
       </c>
     </row>
@@ -4263,19 +4283,19 @@
         <v>150</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N70)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H70">
@@ -4291,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f t="shared" si="9"/>
+        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
         <v>74</v>
       </c>
     </row>
@@ -4306,19 +4326,19 @@
         <v>152</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N71)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
         <v>36</v>
       </c>
       <c r="H71">
@@ -4337,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="N71">
-        <f t="shared" si="9"/>
+        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
         <v>86</v>
       </c>
     </row>
@@ -4352,19 +4372,19 @@
         <v>154</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N72)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H72">
@@ -4380,7 +4400,7 @@
         <v>40</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
+        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
         <v>72</v>
       </c>
     </row>
@@ -4395,20 +4415,20 @@
         <v>156</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N73)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H73">
         <v>13</v>
@@ -4422,9 +4442,12 @@
       <c r="L73">
         <v>40</v>
       </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
       <c r="N73">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,19 +4461,19 @@
         <v>158</v>
       </c>
       <c r="D74" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N74)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G74" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
         <v/>
       </c>
       <c r="J74">
@@ -4463,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
+        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
         <v>34</v>
       </c>
     </row>
@@ -4478,19 +4501,19 @@
         <v>160</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N75)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
         <v>44</v>
       </c>
       <c r="H75">
@@ -4509,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="N75">
-        <f t="shared" si="9"/>
+        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
         <v>94</v>
       </c>
     </row>
@@ -4524,19 +4547,19 @@
         <v>162</v>
       </c>
       <c r="D76" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N76)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F76" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G76" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
         <v/>
       </c>
       <c r="J76">
@@ -4546,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="9"/>
+        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
         <v>4</v>
       </c>
     </row>
@@ -4561,19 +4584,19 @@
         <v>164</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N77)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H77">
@@ -4589,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="N77">
-        <f t="shared" si="9"/>
+        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
         <v>70</v>
       </c>
     </row>
@@ -4604,19 +4627,19 @@
         <v>166</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N78)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H78">
@@ -4635,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f t="shared" si="9"/>
+        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
         <v>102</v>
       </c>
     </row>
@@ -4650,26 +4673,26 @@
         <v>168</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N79)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
         <v/>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="9"/>
+        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
         <v>0</v>
       </c>
     </row>
@@ -4684,19 +4707,19 @@
         <v>170</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N80)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
         <v>49</v>
       </c>
       <c r="H80">
@@ -4715,7 +4738,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f t="shared" si="9"/>
+        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
         <v>99</v>
       </c>
     </row>
@@ -4730,19 +4753,19 @@
         <v>172</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N81)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
         <v>25</v>
       </c>
       <c r="H81">
@@ -4758,7 +4781,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f t="shared" si="9"/>
+        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
         <v>75</v>
       </c>
     </row>
@@ -4773,19 +4796,19 @@
         <v>174</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N82)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
         <v>31</v>
       </c>
       <c r="H82">
@@ -4804,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="N82">
-        <f t="shared" si="9"/>
+        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
         <v>81</v>
       </c>
     </row>
@@ -4819,19 +4842,19 @@
         <v>176</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N83)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H83">
@@ -4847,7 +4870,7 @@
         <v>40</v>
       </c>
       <c r="N83">
-        <f t="shared" si="9"/>
+        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
         <v>73</v>
       </c>
     </row>
@@ -4862,19 +4885,19 @@
         <v>178</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N84)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N84)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N84)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N84)&gt;=51,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H84">
@@ -4890,7 +4913,7 @@
         <v>40</v>
       </c>
       <c r="N84">
-        <f t="shared" si="9"/>
+        <f>IF((H84+J84+L84+M84+O84)&lt;70,IF((H84+J84+L84+M84+O84)&gt;64,70,(H84+J84+L84+M84+O84)),(H84+J84+L84+M84+O84))</f>
         <v>71</v>
       </c>
     </row>
@@ -4905,26 +4928,26 @@
         <v>180</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N85)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N85)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N85)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N85)&gt;=51,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
         <v/>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="9"/>
+        <f>IF((H85+J85+L85+M85+O85)&lt;70,IF((H85+J85+L85+M85+O85)&gt;64,70,(H85+J85+L85+M85+O85)),(H85+J85+L85+M85+O85))</f>
         <v>0</v>
       </c>
     </row>
@@ -4939,19 +4962,19 @@
         <v>182</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N86)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N86)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N86)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N86)&gt;=51,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H86">
@@ -4967,7 +4990,7 @@
         <v>40</v>
       </c>
       <c r="N86">
-        <f t="shared" si="9"/>
+        <f>IF((H86+J86+L86+M86+O86)&lt;70,IF((H86+J86+L86+M86+O86)&gt;64,70,(H86+J86+L86+M86+O86)),(H86+J86+L86+M86+O86))</f>
         <v>70</v>
       </c>
     </row>
@@ -4982,19 +5005,19 @@
         <v>184</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N87)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N87)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N87)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N87)&gt;=51,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H87">
@@ -5013,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="N87">
-        <f t="shared" si="9"/>
+        <f>IF((H87+J87+L87+M87+O87)&lt;70,IF((H87+J87+L87+M87+O87)&gt;64,70,(H87+J87+L87+M87+O87)),(H87+J87+L87+M87+O87))</f>
         <v>90</v>
       </c>
     </row>
@@ -5028,19 +5051,19 @@
         <v>186</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N88)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N88)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N88)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N88)&gt;=51,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H88">
@@ -5056,7 +5079,7 @@
         <v>40</v>
       </c>
       <c r="N88">
-        <f t="shared" si="9"/>
+        <f>IF((H88+J88+L88+M88+O88)&lt;70,IF((H88+J88+L88+M88+O88)&gt;64,70,(H88+J88+L88+M88+O88)),(H88+J88+L88+M88+O88))</f>
         <v>72</v>
       </c>
     </row>
@@ -5071,19 +5094,19 @@
         <v>188</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N89)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N89)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N89)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N89)&gt;=51,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H89">
@@ -5099,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="N89">
-        <f t="shared" si="9"/>
+        <f>IF((H89+J89+L89+M89+O89)&lt;70,IF((H89+J89+L89+M89+O89)&gt;64,70,(H89+J89+L89+M89+O89)),(H89+J89+L89+M89+O89))</f>
         <v>70</v>
       </c>
     </row>
@@ -5114,19 +5137,19 @@
         <v>190</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N90)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N90)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N90)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N90)&gt;=51,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
         <v>42</v>
       </c>
       <c r="H90">
@@ -5145,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="N90">
-        <f t="shared" si="9"/>
+        <f>IF((H90+J90+L90+M90+O90)&lt;70,IF((H90+J90+L90+M90+O90)&gt;64,70,(H90+J90+L90+M90+O90)),(H90+J90+L90+M90+O90))</f>
         <v>92</v>
       </c>
     </row>
@@ -5160,19 +5183,19 @@
         <v>192</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N91)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N91)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N91)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N91)&gt;=51,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H91">
@@ -5188,7 +5211,7 @@
         <v>40</v>
       </c>
       <c r="N91">
-        <f t="shared" si="9"/>
+        <f>IF((H91+J91+L91+M91+O91)&lt;70,IF((H91+J91+L91+M91+O91)&gt;64,70,(H91+J91+L91+M91+O91)),(H91+J91+L91+M91+O91))</f>
         <v>70</v>
       </c>
     </row>
@@ -5203,19 +5226,19 @@
         <v>194</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N92)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N92)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N92)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N92)&gt;=51,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
         <v>7</v>
       </c>
       <c r="H92">
@@ -5231,7 +5254,7 @@
         <v>35</v>
       </c>
       <c r="N92">
-        <f t="shared" si="9"/>
+        <f>IF((H92+J92+L92+M92+O92)&lt;70,IF((H92+J92+L92+M92+O92)&gt;64,70,(H92+J92+L92+M92+O92)),(H92+J92+L92+M92+O92))</f>
         <v>57</v>
       </c>
     </row>
@@ -5246,19 +5269,19 @@
         <v>196</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N93)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N93)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N93)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N93)&gt;=51,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H93">
@@ -5274,7 +5297,7 @@
         <v>40</v>
       </c>
       <c r="N93">
-        <f t="shared" si="9"/>
+        <f>IF((H93+J93+L93+M93+O93)&lt;70,IF((H93+J93+L93+M93+O93)&gt;64,70,(H93+J93+L93+M93+O93)),(H93+J93+L93+M93+O93))</f>
         <v>76</v>
       </c>
     </row>
@@ -5289,19 +5312,19 @@
         <v>198</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N94)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N94)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N94)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N94)&gt;=51,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H94">
@@ -5320,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="N94">
-        <f t="shared" si="9"/>
+        <f>IF((H94+J94+L94+M94+O94)&lt;70,IF((H94+J94+L94+M94+O94)&gt;64,70,(H94+J94+L94+M94+O94)),(H94+J94+L94+M94+O94))</f>
         <v>93</v>
       </c>
     </row>
@@ -5335,19 +5358,19 @@
         <v>200</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N95)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N95)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N95)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N95)&gt;=51,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H95">
@@ -5366,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f t="shared" si="9"/>
+        <f>IF((H95+J95+L95+M95+O95)&lt;70,IF((H95+J95+L95+M95+O95)&gt;64,70,(H95+J95+L95+M95+O95)),(H95+J95+L95+M95+O95))</f>
         <v>93</v>
       </c>
     </row>
@@ -5381,19 +5404,19 @@
         <v>202</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N96)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N96)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N96)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N96)&gt;=51,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
         <v>25</v>
       </c>
       <c r="H96">
@@ -5409,7 +5432,7 @@
         <v>40</v>
       </c>
       <c r="N96">
-        <f t="shared" si="9"/>
+        <f>IF((H96+J96+L96+M96+O96)&lt;70,IF((H96+J96+L96+M96+O96)&gt;64,70,(H96+J96+L96+M96+O96)),(H96+J96+L96+M96+O96))</f>
         <v>75</v>
       </c>
     </row>
@@ -5424,19 +5447,19 @@
         <v>204</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N97)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N97)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N97)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N97)&gt;=51,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
         <v>45</v>
       </c>
       <c r="H97">
@@ -5455,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="N97">
-        <f t="shared" si="9"/>
+        <f>IF((H97+J97+L97+M97+O97)&lt;70,IF((H97+J97+L97+M97+O97)&gt;64,70,(H97+J97+L97+M97+O97)),(H97+J97+L97+M97+O97))</f>
         <v>95</v>
       </c>
     </row>
@@ -5470,19 +5493,19 @@
         <v>206</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N98)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
         <v>41</v>
       </c>
       <c r="H98">
@@ -5501,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f t="shared" si="9"/>
+        <f>IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
         <v>91</v>
       </c>
     </row>
@@ -5516,19 +5539,19 @@
         <v>208</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N99)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N99)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N99)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N99)&gt;=51,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H99">
@@ -5544,7 +5567,7 @@
         <v>40</v>
       </c>
       <c r="N99">
-        <f t="shared" si="9"/>
+        <f>IF((H99+J99+L99+M99+O99)&lt;70,IF((H99+J99+L99+M99+O99)&gt;64,70,(H99+J99+L99+M99+O99)),(H99+J99+L99+M99+O99))</f>
         <v>74</v>
       </c>
     </row>
@@ -5559,19 +5582,19 @@
         <v>210</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N100)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N100)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N100)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N100)&gt;=51,IF((N100-50)&gt;50,50,IF((N100-50)&lt;0,0,(N100-50))), "" )</f>
         <v>25</v>
       </c>
       <c r="H100">
@@ -5587,7 +5610,7 @@
         <v>40</v>
       </c>
       <c r="N100">
-        <f t="shared" si="9"/>
+        <f>IF((H100+J100+L100+M100+O100)&lt;70,IF((H100+J100+L100+M100+O100)&gt;64,70,(H100+J100+L100+M100+O100)),(H100+J100+L100+M100+O100))</f>
         <v>75</v>
       </c>
     </row>
@@ -5602,19 +5625,19 @@
         <v>212</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N101)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N101)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N101)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N101)&gt;=51,IF((N101-50)&gt;50,50,IF((N101-50)&lt;0,0,(N101-50))), "" )</f>
         <v>48</v>
       </c>
       <c r="H101">
@@ -5633,7 +5656,7 @@
         <v>30</v>
       </c>
       <c r="N101">
-        <f t="shared" si="9"/>
+        <f>IF((H101+J101+L101+M101+O101)&lt;70,IF((H101+J101+L101+M101+O101)&gt;64,70,(H101+J101+L101+M101+O101)),(H101+J101+L101+M101+O101))</f>
         <v>98</v>
       </c>
     </row>
@@ -5648,19 +5671,19 @@
         <v>214</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N102)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N102)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N102)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N102)&gt;=51,IF((N102-50)&gt;50,50,IF((N102-50)&lt;0,0,(N102-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H102">
@@ -5676,7 +5699,7 @@
         <v>40</v>
       </c>
       <c r="N102">
-        <f t="shared" si="9"/>
+        <f>IF((H102+J102+L102+M102+O102)&lt;70,IF((H102+J102+L102+M102+O102)&gt;64,70,(H102+J102+L102+M102+O102)),(H102+J102+L102+M102+O102))</f>
         <v>70</v>
       </c>
     </row>
@@ -5691,19 +5714,19 @@
         <v>216</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N103)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N103)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N103)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N103)&gt;=51,IF((N103-50)&gt;50,50,IF((N103-50)&lt;0,0,(N103-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H103">
@@ -5719,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="N103">
-        <f t="shared" si="9"/>
+        <f>IF((H103+J103+L103+M103+O103)&lt;70,IF((H103+J103+L103+M103+O103)&gt;64,70,(H103+J103+L103+M103+O103)),(H103+J103+L103+M103+O103))</f>
         <v>70</v>
       </c>
     </row>
@@ -5734,19 +5757,19 @@
         <v>218</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N104)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N104)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N104)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N104)&gt;=51,IF((N104-50)&gt;50,50,IF((N104-50)&lt;0,0,(N104-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H104">
@@ -5762,7 +5785,7 @@
         <v>40</v>
       </c>
       <c r="N104">
-        <f t="shared" si="9"/>
+        <f>IF((H104+J104+L104+M104+O104)&lt;70,IF((H104+J104+L104+M104+O104)&gt;64,70,(H104+J104+L104+M104+O104)),(H104+J104+L104+M104+O104))</f>
         <v>76</v>
       </c>
     </row>
@@ -5777,19 +5800,19 @@
         <v>220</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N105)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N105)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N105)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N105)&gt;=51,IF((N105-50)&gt;50,50,IF((N105-50)&lt;0,0,(N105-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H105">
@@ -5805,7 +5828,7 @@
         <v>40</v>
       </c>
       <c r="N105">
-        <f t="shared" si="9"/>
+        <f>IF((H105+J105+L105+M105+O105)&lt;70,IF((H105+J105+L105+M105+O105)&gt;64,70,(H105+J105+L105+M105+O105)),(H105+J105+L105+M105+O105))</f>
         <v>72</v>
       </c>
     </row>
@@ -5820,19 +5843,19 @@
         <v>222</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N106)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N106)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N106)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N106)&gt;=51,IF((N106-50)&gt;50,50,IF((N106-50)&lt;0,0,(N106-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H106">
@@ -5848,7 +5871,7 @@
         <v>40</v>
       </c>
       <c r="N106">
-        <f t="shared" si="9"/>
+        <f>IF((H106+J106+L106+M106+O106)&lt;70,IF((H106+J106+L106+M106+O106)&gt;64,70,(H106+J106+L106+M106+O106)),(H106+J106+L106+M106+O106))</f>
         <v>70</v>
       </c>
     </row>
@@ -5863,19 +5886,19 @@
         <v>224</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N107)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N107)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N107)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N107)&gt;=51,IF((N107-50)&gt;50,50,IF((N107-50)&lt;0,0,(N107-50))), "" )</f>
         <v>35</v>
       </c>
       <c r="H107">
@@ -5894,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="N107">
-        <f t="shared" si="9"/>
+        <f>IF((H107+J107+L107+M107+O107)&lt;70,IF((H107+J107+L107+M107+O107)&gt;64,70,(H107+J107+L107+M107+O107)),(H107+J107+L107+M107+O107))</f>
         <v>85</v>
       </c>
     </row>
@@ -5909,19 +5932,19 @@
         <v>226</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N108)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N108)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N108)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N108)&gt;=51,IF((N108-50)&gt;50,50,IF((N108-50)&lt;0,0,(N108-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H108">
@@ -5937,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="N108">
-        <f t="shared" si="9"/>
+        <f>IF((H108+J108+L108+M108+O108)&lt;70,IF((H108+J108+L108+M108+O108)&gt;64,70,(H108+J108+L108+M108+O108)),(H108+J108+L108+M108+O108))</f>
         <v>74</v>
       </c>
     </row>
@@ -5952,19 +5975,19 @@
         <v>228</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N109)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N109)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N109)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N109)&gt;=51,IF((N109-50)&gt;50,50,IF((N109-50)&lt;0,0,(N109-50))), "" )</f>
         <v>44</v>
       </c>
       <c r="H109">
@@ -5983,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="N109">
-        <f t="shared" si="9"/>
+        <f>IF((H109+J109+L109+M109+O109)&lt;70,IF((H109+J109+L109+M109+O109)&gt;64,70,(H109+J109+L109+M109+O109)),(H109+J109+L109+M109+O109))</f>
         <v>94</v>
       </c>
     </row>
@@ -5998,19 +6021,19 @@
         <v>230</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N110)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N110)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N110)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N110)&gt;=51,IF((N110-50)&gt;50,50,IF((N110-50)&lt;0,0,(N110-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="J110">
@@ -6026,7 +6049,7 @@
         <v>20</v>
       </c>
       <c r="N110">
-        <f t="shared" si="9"/>
+        <f>IF((H110+J110+L110+M110+O110)&lt;70,IF((H110+J110+L110+M110+O110)&gt;64,70,(H110+J110+L110+M110+O110)),(H110+J110+L110+M110+O110))</f>
         <v>76</v>
       </c>
     </row>
@@ -6041,26 +6064,26 @@
         <v>232</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N111)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N111)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F111" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N111)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N111)&gt;=51,IF((N111-50)&gt;50,50,IF((N111-50)&lt;0,0,(N111-50))), "" )</f>
         <v/>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="N111">
-        <f t="shared" si="9"/>
+        <f>IF((H111+J111+L111+M111+O111)&lt;70,IF((H111+J111+L111+M111+O111)&gt;64,70,(H111+J111+L111+M111+O111)),(H111+J111+L111+M111+O111))</f>
         <v>0</v>
       </c>
     </row>
@@ -6075,19 +6098,19 @@
         <v>234</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N112)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N112)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N112)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N112)&gt;=51,IF((N112-50)&gt;50,50,IF((N112-50)&lt;0,0,(N112-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H112">
@@ -6106,7 +6129,7 @@
         <v>30</v>
       </c>
       <c r="N112">
-        <f t="shared" si="9"/>
+        <f>IF((H112+J112+L112+M112+O112)&lt;70,IF((H112+J112+L112+M112+O112)&gt;64,70,(H112+J112+L112+M112+O112)),(H112+J112+L112+M112+O112))</f>
         <v>100</v>
       </c>
     </row>
@@ -6121,20 +6144,20 @@
         <v>236</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N113)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N113)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N113)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f>IF((N113)&gt;=51,IF((N113-50)&gt;50,50,IF((N113-50)&lt;0,0,(N113-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H113">
         <v>12</v>
@@ -6148,9 +6171,12 @@
       <c r="L113">
         <v>40</v>
       </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
       <c r="N113">
-        <f t="shared" si="9"/>
-        <v>61</v>
+        <f>IF((H113+J113+L113+M113+O113)&lt;70,IF((H113+J113+L113+M113+O113)&gt;64,70,(H113+J113+L113+M113+O113)),(H113+J113+L113+M113+O113))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,19 +6190,19 @@
         <v>238</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N114)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N114)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N114)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N114)&gt;=51,IF((N114-50)&gt;50,50,IF((N114-50)&lt;0,0,(N114-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H114">
@@ -6192,7 +6218,7 @@
         <v>35</v>
       </c>
       <c r="N114">
-        <f t="shared" si="9"/>
+        <f>IF((H114+J114+L114+M114+O114)&lt;70,IF((H114+J114+L114+M114+O114)&gt;64,70,(H114+J114+L114+M114+O114)),(H114+J114+L114+M114+O114))</f>
         <v>70</v>
       </c>
     </row>
@@ -6207,19 +6233,19 @@
         <v>240</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N115)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N115)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N115)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N115)&gt;=51,IF((N115-50)&gt;50,50,IF((N115-50)&lt;0,0,(N115-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H115">
@@ -6235,7 +6261,7 @@
         <v>40</v>
       </c>
       <c r="N115">
-        <f t="shared" si="9"/>
+        <f>IF((H115+J115+L115+M115+O115)&lt;70,IF((H115+J115+L115+M115+O115)&gt;64,70,(H115+J115+L115+M115+O115)),(H115+J115+L115+M115+O115))</f>
         <v>70</v>
       </c>
     </row>
@@ -6283,6 +6309,9 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
       <c r="D117" s="6" t="str">
         <f>IF((N117)&gt;=50,10,"")</f>
         <v/>
@@ -6300,36 +6329,39 @@
         <v/>
       </c>
       <c r="N117">
-        <f t="shared" ref="N117:N119" si="10">IF((H117+J117+L117+M117+O117)&lt;70,IF((H117+J117+L117+M117+O117)&gt;64,70,(H117+J117+L117+M117+O117)),(H117+J117+L117+M117+O117))</f>
+        <f>IF((H117+J117+L117+M117+O117)&lt;70,IF((H117+J117+L117+M117+O117)&gt;64,70,(H117+J117+L117+M117+O117)),(H117+J117+L117+M117+O117))</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="13"/>
       <c r="B118" s="12" t="s">
         <v>243</v>
       </c>
+      <c r="C118" s="13"/>
       <c r="D118" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N118)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N118)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F118" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N118)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G118" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N118)&gt;=51,IF((N118-50)&gt;50,50,IF((N118-50)&lt;0,0,(N118-50))), "" )</f>
         <v/>
       </c>
       <c r="N118">
-        <f t="shared" si="10"/>
+        <f>IF((H118+J118+L118+M118+O118)&lt;70,IF((H118+J118+L118+M118+O118)&gt;64,70,(H118+J118+L118+M118+O118)),(H118+J118+L118+M118+O118))</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="13"/>
       <c r="B119" s="12" t="s">
         <v>244</v>
       </c>
@@ -6337,19 +6369,19 @@
         <v>245</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N119)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N119)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N119)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N119)&gt;=51,IF((N119-50)&gt;50,50,IF((N119-50)&lt;0,0,(N119-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H119">
@@ -6362,7 +6394,7 @@
         <v>40</v>
       </c>
       <c r="N119">
-        <f t="shared" si="10"/>
+        <f>IF((H119+J119+L119+M119+O119)&lt;70,IF((H119+J119+L119+M119+O119)&gt;64,70,(H119+J119+L119+M119+O119)),(H119+J119+L119+M119+O119))</f>
         <v>74</v>
       </c>
     </row>
@@ -6372,6 +6404,9 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
+    <sortState ref="A2:O119">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1315,8 +1315,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,19 +1393,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>IF((N2)&gt;=50,10,"")</f>
+        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f>IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1425,7 +1425,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f>IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="4">IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
         <v>110</v>
       </c>
       <c r="O2">
@@ -1443,19 +1443,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f>IF((N3)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="H3">
@@ -1471,7 +1471,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -1486,19 +1486,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="6">
-        <f>IF((N4)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H4">
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
@@ -1532,19 +1532,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="6">
-        <f>IF((N5)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H5">
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -1575,19 +1575,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="6">
-        <f>IF((N6)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G6" s="6">
-        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="H6">
@@ -1603,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
@@ -1618,19 +1618,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>IF((N7)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I7" s="13"/>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1653,19 +1653,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="6">
-        <f>IF((N8)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H8">
@@ -1681,7 +1681,7 @@
         <v>40</v>
       </c>
       <c r="N8">
-        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -1696,19 +1696,19 @@
         <v>28</v>
       </c>
       <c r="D9" s="6">
-        <f>IF((N9)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H9">
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="N9">
-        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1742,19 +1742,19 @@
         <v>30</v>
       </c>
       <c r="D10" s="6">
-        <f>IF((N10)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G10" s="6">
-        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H10">
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>32</v>
       </c>
       <c r="D11" s="6">
-        <f>IF((N11)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H11">
@@ -1816,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="N11">
-        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -1831,19 +1831,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <f>IF((N12)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H12">
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="N12">
-        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1874,26 +1874,26 @@
         <v>36</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>IF((N13)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E13" s="2" t="str">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1908,19 +1908,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="6">
-        <f>IF((N14)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E14" s="2">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G14" s="6">
-        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H14">
@@ -1936,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="N14">
-        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
@@ -1951,26 +1951,26 @@
         <v>40</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>IF((N15)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="2" t="str">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" s="6" t="str">
-        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <f>IF((N16)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="H16">
@@ -2016,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="N16">
-        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -2031,26 +2031,26 @@
         <v>44</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f>IF((N17)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E17" s="2" t="str">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" s="6" t="str">
-        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2065,19 +2065,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="6">
-        <f>IF((N18)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="H18">
@@ -2096,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="N18">
-        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
     </row>
@@ -2111,19 +2111,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="6">
-        <f>IF((N19)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F19" s="2">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G19" s="6">
-        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H19">
@@ -2139,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="N19">
-        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -2154,26 +2154,26 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f>IF((N20)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E20" s="2" t="str">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="6" t="str">
-        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2188,19 +2188,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="6">
-        <f>IF((N21)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J21">
@@ -2216,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="N21">
-        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
@@ -2231,19 +2231,19 @@
         <v>54</v>
       </c>
       <c r="D22" s="6">
-        <f>IF((N22)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H22">
@@ -2259,7 +2259,7 @@
         <v>40</v>
       </c>
       <c r="N22">
-        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -2274,19 +2274,19 @@
         <v>56</v>
       </c>
       <c r="D23" s="6">
-        <f>IF((N23)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F23" s="2">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H23">
@@ -2302,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="N23">
-        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>58</v>
       </c>
       <c r="D24" s="6">
-        <f>IF((N24)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="H24">
@@ -2345,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -2360,19 +2360,19 @@
         <v>60</v>
       </c>
       <c r="D25" s="6">
-        <f>IF((N25)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H25">
@@ -2388,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="N25">
-        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -2403,26 +2403,26 @@
         <v>62</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f>IF((N26)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>64</v>
       </c>
       <c r="D27" s="6">
-        <f>IF((N27)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H27">
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2483,19 +2483,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="6">
-        <f>IF((N28)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2511,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="N28">
-        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2526,19 +2526,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="6">
-        <f>IF((N29)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="H29">
@@ -2557,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="N29">
-        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
     </row>
@@ -2572,19 +2572,19 @@
         <v>70</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f>IF((N30)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E30" s="2" t="str">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H30">
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -2609,19 +2609,19 @@
         <v>72</v>
       </c>
       <c r="D31" s="6">
-        <f>IF((N31)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H31">
@@ -2637,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2652,19 +2652,19 @@
         <v>74</v>
       </c>
       <c r="D32" s="6">
-        <f>IF((N32)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="H32">
@@ -2680,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -2695,19 +2695,19 @@
         <v>76</v>
       </c>
       <c r="D33" s="6">
-        <f>IF((N33)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H33">
@@ -2726,7 +2726,7 @@
         <v>30</v>
       </c>
       <c r="N33">
-        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
@@ -2741,19 +2741,19 @@
         <v>78</v>
       </c>
       <c r="D34" s="6">
-        <f>IF((N34)&gt;=50,10,"")</f>
+        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="N34">
-        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="9">IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2784,19 +2784,19 @@
         <v>80</v>
       </c>
       <c r="D35" s="6">
-        <f>IF((N35)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F35" s="2">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G35" s="6">
-        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H35">
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -2830,19 +2830,19 @@
         <v>82</v>
       </c>
       <c r="D36" s="6">
-        <f>IF((N36)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="H36">
@@ -2861,7 +2861,7 @@
         <v>30</v>
       </c>
       <c r="N36">
-        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
     </row>
@@ -2876,19 +2876,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="6">
-        <f>IF((N37)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H37">
@@ -2904,7 +2904,7 @@
         <v>40</v>
       </c>
       <c r="N37">
-        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -2919,19 +2919,19 @@
         <v>86</v>
       </c>
       <c r="D38" s="6">
-        <f>IF((N38)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H38">
@@ -2950,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
         <v>88</v>
       </c>
       <c r="D39" s="6">
-        <f>IF((N39)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H39">
@@ -2993,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3008,19 +3008,19 @@
         <v>90</v>
       </c>
       <c r="D40" s="6">
-        <f>IF((N40)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="H40">
@@ -3036,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="N40">
-        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
     </row>
@@ -3051,26 +3051,26 @@
         <v>92</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f>IF((N41)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E41" s="2" t="str">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F41" s="2" t="str">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G41" s="6" t="str">
-        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3085,19 +3085,19 @@
         <v>94</v>
       </c>
       <c r="D42" s="6">
-        <f>IF((N42)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H42">
@@ -3116,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="N42">
-        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
     </row>
@@ -3131,19 +3131,19 @@
         <v>96</v>
       </c>
       <c r="D43" s="6">
-        <f>IF((N43)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H43">
@@ -3159,7 +3159,7 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3174,19 +3174,19 @@
         <v>98</v>
       </c>
       <c r="D44" s="6">
-        <f>IF((N44)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H44">
@@ -3202,7 +3202,7 @@
         <v>40</v>
       </c>
       <c r="N44">
-        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3217,19 +3217,19 @@
         <v>100</v>
       </c>
       <c r="D45" s="6">
-        <f>IF((N45)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="H45">
@@ -3248,7 +3248,7 @@
         <v>25</v>
       </c>
       <c r="N45">
-        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
     </row>
@@ -3263,26 +3263,26 @@
         <v>102</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f>IF((N46)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E46" s="2" t="str">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F46" s="2" t="str">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G46" s="6" t="str">
-        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3297,26 +3297,26 @@
         <v>104</v>
       </c>
       <c r="D47" s="6" t="str">
-        <f>IF((N47)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E47" s="2" t="str">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F47" s="2" t="str">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G47" s="6" t="str">
-        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3331,19 +3331,19 @@
         <v>106</v>
       </c>
       <c r="D48" s="6">
-        <f>IF((N48)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H48">
@@ -3359,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="N48">
-        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -3374,19 +3374,19 @@
         <v>108</v>
       </c>
       <c r="D49" s="6">
-        <f>IF((N49)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H49">
@@ -3402,7 +3402,7 @@
         <v>40</v>
       </c>
       <c r="N49">
-        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3417,19 +3417,19 @@
         <v>110</v>
       </c>
       <c r="D50" s="6">
-        <f>IF((N50)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H50">
@@ -3445,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="N50">
-        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3460,19 +3460,19 @@
         <v>112</v>
       </c>
       <c r="D51" s="6">
-        <f>IF((N51)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H51">
@@ -3488,7 +3488,7 @@
         <v>37</v>
       </c>
       <c r="N51">
-        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3503,19 +3503,19 @@
         <v>114</v>
       </c>
       <c r="D52" s="6">
-        <f>IF((N52)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H52">
@@ -3531,7 +3531,7 @@
         <v>40</v>
       </c>
       <c r="N52">
-        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>116</v>
       </c>
       <c r="D53" s="6">
-        <f>IF((N53)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G53" s="6">
-        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="H53">
@@ -3574,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="N53">
-        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
     </row>
@@ -3589,19 +3589,19 @@
         <v>118</v>
       </c>
       <c r="D54" s="6">
-        <f>IF((N54)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H54">
@@ -3617,7 +3617,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3632,19 +3632,19 @@
         <v>120</v>
       </c>
       <c r="D55" s="6">
-        <f>IF((N55)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H55">
@@ -3663,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
     </row>
@@ -3678,19 +3678,19 @@
         <v>122</v>
       </c>
       <c r="D56" s="6">
-        <f>IF((N56)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3706,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="N56">
-        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3721,19 +3721,19 @@
         <v>124</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f>IF((N57)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E57" s="2" t="str">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H57">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
     </row>
@@ -3761,19 +3761,19 @@
         <v>126</v>
       </c>
       <c r="D58" s="6">
-        <f>IF((N58)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H58">
@@ -3789,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="N58">
-        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3804,19 +3804,19 @@
         <v>128</v>
       </c>
       <c r="D59" s="6">
-        <f>IF((N59)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="J59">
@@ -3832,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
     </row>
@@ -3847,19 +3847,19 @@
         <v>130</v>
       </c>
       <c r="D60" s="6">
-        <f>IF((N60)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J60">
@@ -3875,7 +3875,7 @@
         <v>28</v>
       </c>
       <c r="N60">
-        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -3890,19 +3890,19 @@
         <v>132</v>
       </c>
       <c r="D61" s="6">
-        <f>IF((N61)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H61">
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3933,19 +3933,19 @@
         <v>134</v>
       </c>
       <c r="D62" s="6">
-        <f>IF((N62)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="H62">
@@ -3961,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
     </row>
@@ -3976,19 +3976,19 @@
         <v>136</v>
       </c>
       <c r="D63" s="6">
-        <f>IF((N63)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H63">
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="N63">
-        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -4019,19 +4019,19 @@
         <v>138</v>
       </c>
       <c r="D64" s="6">
-        <f>IF((N64)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H64">
@@ -4047,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="N64">
-        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -4062,19 +4062,19 @@
         <v>140</v>
       </c>
       <c r="D65" s="6">
-        <f>IF((N65)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H65">
@@ -4090,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="N65">
-        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -4105,19 +4105,19 @@
         <v>142</v>
       </c>
       <c r="D66" s="6">
-        <f>IF((N66)&gt;=50,10,"")</f>
+        <f t="shared" ref="D66:D97" si="10">IF((N66)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="E66:E97" si="11">IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="F66:F97" si="12">IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" ref="G66:G97" si="13">IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H66">
@@ -4136,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="N66">
-        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>101</v>
       </c>
     </row>
@@ -4151,19 +4151,19 @@
         <v>144</v>
       </c>
       <c r="D67" s="6">
-        <f>IF((N67)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H67">
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="N67">
-        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
     </row>
@@ -4194,19 +4194,19 @@
         <v>146</v>
       </c>
       <c r="D68" s="6">
-        <f>IF((N68)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="H68">
@@ -4225,7 +4225,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
     </row>
@@ -4240,19 +4240,19 @@
         <v>148</v>
       </c>
       <c r="D69" s="6">
-        <f>IF((N69)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H69">
@@ -4268,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="N69">
-        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
     </row>
@@ -4283,19 +4283,19 @@
         <v>150</v>
       </c>
       <c r="D70" s="6">
-        <f>IF((N70)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H70">
@@ -4311,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
     </row>
@@ -4326,19 +4326,19 @@
         <v>152</v>
       </c>
       <c r="D71" s="6">
-        <f>IF((N71)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="H71">
@@ -4357,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="N71">
-        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
     </row>
@@ -4372,19 +4372,19 @@
         <v>154</v>
       </c>
       <c r="D72" s="6">
-        <f>IF((N72)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H72">
@@ -4400,7 +4400,7 @@
         <v>40</v>
       </c>
       <c r="N72">
-        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
     </row>
@@ -4415,19 +4415,19 @@
         <v>156</v>
       </c>
       <c r="D73" s="6">
-        <f>IF((N73)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H73">
@@ -4446,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="N73">
-        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4461,19 +4461,19 @@
         <v>158</v>
       </c>
       <c r="D74" s="6" t="str">
-        <f>IF((N74)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E74" s="2" t="str">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F74" s="2" t="str">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G74" s="6" t="str">
-        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J74">
@@ -4486,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="N74">
-        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
     </row>
@@ -4501,19 +4501,19 @@
         <v>160</v>
       </c>
       <c r="D75" s="6">
-        <f>IF((N75)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="H75">
@@ -4532,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="N75">
-        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
     </row>
@@ -4547,19 +4547,19 @@
         <v>162</v>
       </c>
       <c r="D76" s="6" t="str">
-        <f>IF((N76)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E76" s="2" t="str">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F76" s="2" t="str">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G76" s="6" t="str">
-        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J76">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
     </row>
@@ -4584,19 +4584,19 @@
         <v>164</v>
       </c>
       <c r="D77" s="6">
-        <f>IF((N77)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H77">
@@ -4612,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="N77">
-        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4627,19 +4627,19 @@
         <v>166</v>
       </c>
       <c r="D78" s="6">
-        <f>IF((N78)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E78" s="2">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F78" s="2">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G78" s="6">
-        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="H78">
@@ -4658,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
     </row>
@@ -4673,26 +4673,26 @@
         <v>168</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f>IF((N79)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E79" s="2" t="str">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,19 +4707,19 @@
         <v>170</v>
       </c>
       <c r="D80" s="6">
-        <f>IF((N80)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="H80">
@@ -4738,7 +4738,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
     </row>
@@ -4753,19 +4753,19 @@
         <v>172</v>
       </c>
       <c r="D81" s="6">
-        <f>IF((N81)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E81" s="2">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G81" s="6">
-        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H81">
@@ -4781,7 +4781,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
     </row>
@@ -4796,19 +4796,19 @@
         <v>174</v>
       </c>
       <c r="D82" s="6">
-        <f>IF((N82)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="H82">
@@ -4827,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="N82">
-        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
     </row>
@@ -4842,20 +4842,20 @@
         <v>176</v>
       </c>
       <c r="D83" s="6">
-        <f>IF((N83)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>17</v>
@@ -4869,9 +4869,12 @@
       <c r="L83">
         <v>40</v>
       </c>
+      <c r="M83">
+        <v>15</v>
+      </c>
       <c r="N83">
-        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
-        <v>73</v>
+        <f t="shared" si="14"/>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4885,19 +4888,19 @@
         <v>178</v>
       </c>
       <c r="D84" s="6">
-        <f>IF((N84)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E84" s="2">
-        <f>IF((N84)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F84" s="2">
-        <f>IF((N84)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G84" s="6">
-        <f>IF((N84)&gt;=51,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H84">
@@ -4913,7 +4916,7 @@
         <v>40</v>
       </c>
       <c r="N84">
-        <f>IF((H84+J84+L84+M84+O84)&lt;70,IF((H84+J84+L84+M84+O84)&gt;64,70,(H84+J84+L84+M84+O84)),(H84+J84+L84+M84+O84))</f>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
     </row>
@@ -4928,26 +4931,26 @@
         <v>180</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>IF((N85)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f>IF((N85)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f>IF((N85)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f>IF((N85)&gt;=51,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <f>IF((H85+J85+L85+M85+O85)&lt;70,IF((H85+J85+L85+M85+O85)&gt;64,70,(H85+J85+L85+M85+O85)),(H85+J85+L85+M85+O85))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4962,19 +4965,19 @@
         <v>182</v>
       </c>
       <c r="D86" s="6">
-        <f>IF((N86)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E86" s="2">
-        <f>IF((N86)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <f>IF((N86)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G86" s="6">
-        <f>IF((N86)&gt;=51,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H86">
@@ -4990,7 +4993,7 @@
         <v>40</v>
       </c>
       <c r="N86">
-        <f>IF((H86+J86+L86+M86+O86)&lt;70,IF((H86+J86+L86+M86+O86)&gt;64,70,(H86+J86+L86+M86+O86)),(H86+J86+L86+M86+O86))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5005,19 +5008,19 @@
         <v>184</v>
       </c>
       <c r="D87" s="6">
-        <f>IF((N87)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f>IF((N87)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <f>IF((N87)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G87" s="6">
-        <f>IF((N87)&gt;=51,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H87">
@@ -5036,7 +5039,7 @@
         <v>26</v>
       </c>
       <c r="N87">
-        <f>IF((H87+J87+L87+M87+O87)&lt;70,IF((H87+J87+L87+M87+O87)&gt;64,70,(H87+J87+L87+M87+O87)),(H87+J87+L87+M87+O87))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -5051,19 +5054,19 @@
         <v>186</v>
       </c>
       <c r="D88" s="6">
-        <f>IF((N88)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E88" s="2">
-        <f>IF((N88)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F88" s="2">
-        <f>IF((N88)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G88" s="6">
-        <f>IF((N88)&gt;=51,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H88">
@@ -5079,7 +5082,7 @@
         <v>40</v>
       </c>
       <c r="N88">
-        <f>IF((H88+J88+L88+M88+O88)&lt;70,IF((H88+J88+L88+M88+O88)&gt;64,70,(H88+J88+L88+M88+O88)),(H88+J88+L88+M88+O88))</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
     </row>
@@ -5094,19 +5097,19 @@
         <v>188</v>
       </c>
       <c r="D89" s="6">
-        <f>IF((N89)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <f>IF((N89)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <f>IF((N89)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G89" s="6">
-        <f>IF((N89)&gt;=51,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H89">
@@ -5122,7 +5125,7 @@
         <v>38</v>
       </c>
       <c r="N89">
-        <f>IF((H89+J89+L89+M89+O89)&lt;70,IF((H89+J89+L89+M89+O89)&gt;64,70,(H89+J89+L89+M89+O89)),(H89+J89+L89+M89+O89))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5137,19 +5140,19 @@
         <v>190</v>
       </c>
       <c r="D90" s="6">
-        <f>IF((N90)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E90" s="2">
-        <f>IF((N90)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <f>IF((N90)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G90" s="6">
-        <f>IF((N90)&gt;=51,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H90">
@@ -5168,7 +5171,7 @@
         <v>20</v>
       </c>
       <c r="N90">
-        <f>IF((H90+J90+L90+M90+O90)&lt;70,IF((H90+J90+L90+M90+O90)&gt;64,70,(H90+J90+L90+M90+O90)),(H90+J90+L90+M90+O90))</f>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
     </row>
@@ -5183,19 +5186,19 @@
         <v>192</v>
       </c>
       <c r="D91" s="6">
-        <f>IF((N91)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E91" s="2">
-        <f>IF((N91)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F91" s="2">
-        <f>IF((N91)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G91" s="6">
-        <f>IF((N91)&gt;=51,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H91">
@@ -5211,7 +5214,7 @@
         <v>40</v>
       </c>
       <c r="N91">
-        <f>IF((H91+J91+L91+M91+O91)&lt;70,IF((H91+J91+L91+M91+O91)&gt;64,70,(H91+J91+L91+M91+O91)),(H91+J91+L91+M91+O91))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5226,19 +5229,19 @@
         <v>194</v>
       </c>
       <c r="D92" s="6">
-        <f>IF((N92)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <f>IF((N92)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F92" s="2">
-        <f>IF((N92)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G92" s="6">
-        <f>IF((N92)&gt;=51,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="H92">
@@ -5254,7 +5257,7 @@
         <v>35</v>
       </c>
       <c r="N92">
-        <f>IF((H92+J92+L92+M92+O92)&lt;70,IF((H92+J92+L92+M92+O92)&gt;64,70,(H92+J92+L92+M92+O92)),(H92+J92+L92+M92+O92))</f>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
     </row>
@@ -5269,19 +5272,19 @@
         <v>196</v>
       </c>
       <c r="D93" s="6">
-        <f>IF((N93)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E93" s="2">
-        <f>IF((N93)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F93" s="2">
-        <f>IF((N93)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f>IF((N93)&gt;=51,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="H93">
@@ -5297,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="N93">
-        <f>IF((H93+J93+L93+M93+O93)&lt;70,IF((H93+J93+L93+M93+O93)&gt;64,70,(H93+J93+L93+M93+O93)),(H93+J93+L93+M93+O93))</f>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
     </row>
@@ -5312,19 +5315,19 @@
         <v>198</v>
       </c>
       <c r="D94" s="6">
-        <f>IF((N94)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f>IF((N94)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f>IF((N94)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f>IF((N94)&gt;=51,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="H94">
@@ -5343,7 +5346,7 @@
         <v>20</v>
       </c>
       <c r="N94">
-        <f>IF((H94+J94+L94+M94+O94)&lt;70,IF((H94+J94+L94+M94+O94)&gt;64,70,(H94+J94+L94+M94+O94)),(H94+J94+L94+M94+O94))</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
     </row>
@@ -5358,19 +5361,19 @@
         <v>200</v>
       </c>
       <c r="D95" s="6">
-        <f>IF((N95)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f>IF((N95)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f>IF((N95)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f>IF((N95)&gt;=51,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="H95">
@@ -5389,7 +5392,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f>IF((H95+J95+L95+M95+O95)&lt;70,IF((H95+J95+L95+M95+O95)&gt;64,70,(H95+J95+L95+M95+O95)),(H95+J95+L95+M95+O95))</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
     </row>
@@ -5404,19 +5407,19 @@
         <v>202</v>
       </c>
       <c r="D96" s="6">
-        <f>IF((N96)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E96" s="2">
-        <f>IF((N96)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F96" s="2">
-        <f>IF((N96)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G96" s="6">
-        <f>IF((N96)&gt;=51,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H96">
@@ -5432,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="N96">
-        <f>IF((H96+J96+L96+M96+O96)&lt;70,IF((H96+J96+L96+M96+O96)&gt;64,70,(H96+J96+L96+M96+O96)),(H96+J96+L96+M96+O96))</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
     </row>
@@ -5447,19 +5450,19 @@
         <v>204</v>
       </c>
       <c r="D97" s="6">
-        <f>IF((N97)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E97" s="2">
-        <f>IF((N97)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F97" s="2">
-        <f>IF((N97)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G97" s="6">
-        <f>IF((N97)&gt;=51,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="H97">
@@ -5478,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="N97">
-        <f>IF((H97+J97+L97+M97+O97)&lt;70,IF((H97+J97+L97+M97+O97)&gt;64,70,(H97+J97+L97+M97+O97)),(H97+J97+L97+M97+O97))</f>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
     </row>
@@ -5493,19 +5496,19 @@
         <v>206</v>
       </c>
       <c r="D98" s="6">
-        <f>IF((N98)&gt;=50,10,"")</f>
+        <f t="shared" ref="D98:D119" si="15">IF((N98)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E98" s="2">
-        <f>IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" ref="E98:E119" si="16">IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F98" s="2">
-        <f>IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" ref="F98:F119" si="17">IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f>IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <f t="shared" ref="G98:G119" si="18">IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
         <v>41</v>
       </c>
       <c r="H98">
@@ -5524,7 +5527,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f>IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N129" si="19">IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
         <v>91</v>
       </c>
     </row>
@@ -5539,19 +5542,19 @@
         <v>208</v>
       </c>
       <c r="D99" s="6">
-        <f>IF((N99)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E99" s="2">
-        <f>IF((N99)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <f>IF((N99)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G99" s="6">
-        <f>IF((N99)&gt;=51,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H99">
@@ -5567,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="N99">
-        <f>IF((H99+J99+L99+M99+O99)&lt;70,IF((H99+J99+L99+M99+O99)&gt;64,70,(H99+J99+L99+M99+O99)),(H99+J99+L99+M99+O99))</f>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
     </row>
@@ -5582,19 +5585,19 @@
         <v>210</v>
       </c>
       <c r="D100" s="6">
-        <f>IF((N100)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E100" s="2">
-        <f>IF((N100)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F100" s="2">
-        <f>IF((N100)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G100" s="6">
-        <f>IF((N100)&gt;=51,IF((N100-50)&gt;50,50,IF((N100-50)&lt;0,0,(N100-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="H100">
@@ -5610,7 +5613,7 @@
         <v>40</v>
       </c>
       <c r="N100">
-        <f>IF((H100+J100+L100+M100+O100)&lt;70,IF((H100+J100+L100+M100+O100)&gt;64,70,(H100+J100+L100+M100+O100)),(H100+J100+L100+M100+O100))</f>
+        <f t="shared" si="19"/>
         <v>75</v>
       </c>
     </row>
@@ -5625,19 +5628,19 @@
         <v>212</v>
       </c>
       <c r="D101" s="6">
-        <f>IF((N101)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f>IF((N101)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F101" s="2">
-        <f>IF((N101)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G101" s="6">
-        <f>IF((N101)&gt;=51,IF((N101-50)&gt;50,50,IF((N101-50)&lt;0,0,(N101-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="H101">
@@ -5656,7 +5659,7 @@
         <v>30</v>
       </c>
       <c r="N101">
-        <f>IF((H101+J101+L101+M101+O101)&lt;70,IF((H101+J101+L101+M101+O101)&gt;64,70,(H101+J101+L101+M101+O101)),(H101+J101+L101+M101+O101))</f>
+        <f t="shared" si="19"/>
         <v>98</v>
       </c>
     </row>
@@ -5671,19 +5674,19 @@
         <v>214</v>
       </c>
       <c r="D102" s="6">
-        <f>IF((N102)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E102" s="2">
-        <f>IF((N102)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <f>IF((N102)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G102" s="6">
-        <f>IF((N102)&gt;=51,IF((N102-50)&gt;50,50,IF((N102-50)&lt;0,0,(N102-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H102">
@@ -5699,7 +5702,7 @@
         <v>40</v>
       </c>
       <c r="N102">
-        <f>IF((H102+J102+L102+M102+O102)&lt;70,IF((H102+J102+L102+M102+O102)&gt;64,70,(H102+J102+L102+M102+O102)),(H102+J102+L102+M102+O102))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -5714,19 +5717,19 @@
         <v>216</v>
       </c>
       <c r="D103" s="6">
-        <f>IF((N103)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f>IF((N103)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F103" s="2">
-        <f>IF((N103)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G103" s="6">
-        <f>IF((N103)&gt;=51,IF((N103-50)&gt;50,50,IF((N103-50)&lt;0,0,(N103-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H103">
@@ -5742,7 +5745,7 @@
         <v>40</v>
       </c>
       <c r="N103">
-        <f>IF((H103+J103+L103+M103+O103)&lt;70,IF((H103+J103+L103+M103+O103)&gt;64,70,(H103+J103+L103+M103+O103)),(H103+J103+L103+M103+O103))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -5757,19 +5760,19 @@
         <v>218</v>
       </c>
       <c r="D104" s="6">
-        <f>IF((N104)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E104" s="2">
-        <f>IF((N104)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F104" s="2">
-        <f>IF((N104)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G104" s="6">
-        <f>IF((N104)&gt;=51,IF((N104-50)&gt;50,50,IF((N104-50)&lt;0,0,(N104-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="H104">
@@ -5785,7 +5788,7 @@
         <v>40</v>
       </c>
       <c r="N104">
-        <f>IF((H104+J104+L104+M104+O104)&lt;70,IF((H104+J104+L104+M104+O104)&gt;64,70,(H104+J104+L104+M104+O104)),(H104+J104+L104+M104+O104))</f>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
     </row>
@@ -5800,19 +5803,19 @@
         <v>220</v>
       </c>
       <c r="D105" s="6">
-        <f>IF((N105)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E105" s="2">
-        <f>IF((N105)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <f>IF((N105)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G105" s="6">
-        <f>IF((N105)&gt;=51,IF((N105-50)&gt;50,50,IF((N105-50)&lt;0,0,(N105-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H105">
@@ -5828,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="N105">
-        <f>IF((H105+J105+L105+M105+O105)&lt;70,IF((H105+J105+L105+M105+O105)&gt;64,70,(H105+J105+L105+M105+O105)),(H105+J105+L105+M105+O105))</f>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
     </row>
@@ -5843,19 +5846,19 @@
         <v>222</v>
       </c>
       <c r="D106" s="6">
-        <f>IF((N106)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E106" s="2">
-        <f>IF((N106)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <f>IF((N106)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G106" s="6">
-        <f>IF((N106)&gt;=51,IF((N106-50)&gt;50,50,IF((N106-50)&lt;0,0,(N106-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H106">
@@ -5871,7 +5874,7 @@
         <v>40</v>
       </c>
       <c r="N106">
-        <f>IF((H106+J106+L106+M106+O106)&lt;70,IF((H106+J106+L106+M106+O106)&gt;64,70,(H106+J106+L106+M106+O106)),(H106+J106+L106+M106+O106))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -5886,19 +5889,19 @@
         <v>224</v>
       </c>
       <c r="D107" s="6">
-        <f>IF((N107)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E107" s="2">
-        <f>IF((N107)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F107" s="2">
-        <f>IF((N107)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G107" s="6">
-        <f>IF((N107)&gt;=51,IF((N107-50)&gt;50,50,IF((N107-50)&lt;0,0,(N107-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="H107">
@@ -5917,7 +5920,7 @@
         <v>20</v>
       </c>
       <c r="N107">
-        <f>IF((H107+J107+L107+M107+O107)&lt;70,IF((H107+J107+L107+M107+O107)&gt;64,70,(H107+J107+L107+M107+O107)),(H107+J107+L107+M107+O107))</f>
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
     </row>
@@ -5932,19 +5935,19 @@
         <v>226</v>
       </c>
       <c r="D108" s="6">
-        <f>IF((N108)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E108" s="2">
-        <f>IF((N108)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F108" s="2">
-        <f>IF((N108)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G108" s="6">
-        <f>IF((N108)&gt;=51,IF((N108-50)&gt;50,50,IF((N108-50)&lt;0,0,(N108-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H108">
@@ -5960,7 +5963,7 @@
         <v>40</v>
       </c>
       <c r="N108">
-        <f>IF((H108+J108+L108+M108+O108)&lt;70,IF((H108+J108+L108+M108+O108)&gt;64,70,(H108+J108+L108+M108+O108)),(H108+J108+L108+M108+O108))</f>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
     </row>
@@ -5975,19 +5978,19 @@
         <v>228</v>
       </c>
       <c r="D109" s="6">
-        <f>IF((N109)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E109" s="2">
-        <f>IF((N109)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F109" s="2">
-        <f>IF((N109)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G109" s="6">
-        <f>IF((N109)&gt;=51,IF((N109-50)&gt;50,50,IF((N109-50)&lt;0,0,(N109-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="H109">
@@ -6006,7 +6009,7 @@
         <v>25</v>
       </c>
       <c r="N109">
-        <f>IF((H109+J109+L109+M109+O109)&lt;70,IF((H109+J109+L109+M109+O109)&gt;64,70,(H109+J109+L109+M109+O109)),(H109+J109+L109+M109+O109))</f>
+        <f t="shared" si="19"/>
         <v>94</v>
       </c>
     </row>
@@ -6021,19 +6024,19 @@
         <v>230</v>
       </c>
       <c r="D110" s="6">
-        <f>IF((N110)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E110" s="2">
-        <f>IF((N110)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F110" s="2">
-        <f>IF((N110)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G110" s="6">
-        <f>IF((N110)&gt;=51,IF((N110-50)&gt;50,50,IF((N110-50)&lt;0,0,(N110-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J110">
@@ -6049,7 +6052,7 @@
         <v>20</v>
       </c>
       <c r="N110">
-        <f>IF((H110+J110+L110+M110+O110)&lt;70,IF((H110+J110+L110+M110+O110)&gt;64,70,(H110+J110+L110+M110+O110)),(H110+J110+L110+M110+O110))</f>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
     </row>
@@ -6064,26 +6067,26 @@
         <v>232</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f>IF((N111)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E111" s="2" t="str">
-        <f>IF((N111)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F111" s="2" t="str">
-        <f>IF((N111)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f>IF((N111)&gt;=51,IF((N111-50)&gt;50,50,IF((N111-50)&lt;0,0,(N111-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="N111">
-        <f>IF((H111+J111+L111+M111+O111)&lt;70,IF((H111+J111+L111+M111+O111)&gt;64,70,(H111+J111+L111+M111+O111)),(H111+J111+L111+M111+O111))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -6098,19 +6101,19 @@
         <v>234</v>
       </c>
       <c r="D112" s="6">
-        <f>IF((N112)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E112" s="2">
-        <f>IF((N112)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <f>IF((N112)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G112" s="6">
-        <f>IF((N112)&gt;=51,IF((N112-50)&gt;50,50,IF((N112-50)&lt;0,0,(N112-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="H112">
@@ -6129,7 +6132,7 @@
         <v>30</v>
       </c>
       <c r="N112">
-        <f>IF((H112+J112+L112+M112+O112)&lt;70,IF((H112+J112+L112+M112+O112)&gt;64,70,(H112+J112+L112+M112+O112)),(H112+J112+L112+M112+O112))</f>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
     </row>
@@ -6144,19 +6147,19 @@
         <v>236</v>
       </c>
       <c r="D113" s="6">
-        <f>IF((N113)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E113" s="2">
-        <f>IF((N113)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F113" s="2">
-        <f>IF((N113)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G113" s="6">
-        <f>IF((N113)&gt;=51,IF((N113-50)&gt;50,50,IF((N113-50)&lt;0,0,(N113-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H113">
@@ -6175,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="N113">
-        <f>IF((H113+J113+L113+M113+O113)&lt;70,IF((H113+J113+L113+M113+O113)&gt;64,70,(H113+J113+L113+M113+O113)),(H113+J113+L113+M113+O113))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -6190,19 +6193,19 @@
         <v>238</v>
       </c>
       <c r="D114" s="6">
-        <f>IF((N114)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E114" s="2">
-        <f>IF((N114)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <f>IF((N114)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G114" s="6">
-        <f>IF((N114)&gt;=51,IF((N114-50)&gt;50,50,IF((N114-50)&lt;0,0,(N114-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H114">
@@ -6218,7 +6221,7 @@
         <v>35</v>
       </c>
       <c r="N114">
-        <f>IF((H114+J114+L114+M114+O114)&lt;70,IF((H114+J114+L114+M114+O114)&gt;64,70,(H114+J114+L114+M114+O114)),(H114+J114+L114+M114+O114))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -6233,19 +6236,19 @@
         <v>240</v>
       </c>
       <c r="D115" s="6">
-        <f>IF((N115)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E115" s="2">
-        <f>IF((N115)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F115" s="2">
-        <f>IF((N115)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G115" s="6">
-        <f>IF((N115)&gt;=51,IF((N115-50)&gt;50,50,IF((N115-50)&lt;0,0,(N115-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H115">
@@ -6261,7 +6264,7 @@
         <v>40</v>
       </c>
       <c r="N115">
-        <f>IF((H115+J115+L115+M115+O115)&lt;70,IF((H115+J115+L115+M115+O115)&gt;64,70,(H115+J115+L115+M115+O115)),(H115+J115+L115+M115+O115))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -6276,19 +6279,19 @@
         <v>242</v>
       </c>
       <c r="D116" s="6">
-        <f>IF((N116)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E116" s="2">
-        <f>IF((N116)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F116" s="2">
-        <f>IF((N116)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G116" s="6">
-        <f>IF((N116)&gt;=51,IF((N116-50)&gt;50,50,IF((N116-50)&lt;0,0,(N116-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H116">
@@ -6304,7 +6307,7 @@
         <v>40</v>
       </c>
       <c r="N116">
-        <f>IF((H116+J116+L116+M116+O116)&lt;70,IF((H116+J116+L116+M116+O116)&gt;64,70,(H116+J116+L116+M116+O116)),(H116+J116+L116+M116+O116))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -6313,23 +6316,23 @@
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="6" t="str">
-        <f>IF((N117)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E117" s="2" t="str">
-        <f>IF((N117)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F117" s="2" t="str">
-        <f>IF((N117)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G117" s="6" t="str">
-        <f>IF((N117)&gt;=51,IF((N117-50)&gt;50,50,IF((N117-50)&lt;0,0,(N117-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N117">
-        <f>IF((H117+J117+L117+M117+O117)&lt;70,IF((H117+J117+L117+M117+O117)&gt;64,70,(H117+J117+L117+M117+O117)),(H117+J117+L117+M117+O117))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -6340,23 +6343,23 @@
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="6" t="str">
-        <f>IF((N118)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E118" s="2" t="str">
-        <f>IF((N118)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F118" s="2" t="str">
-        <f>IF((N118)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G118" s="6" t="str">
-        <f>IF((N118)&gt;=51,IF((N118-50)&gt;50,50,IF((N118-50)&lt;0,0,(N118-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N118">
-        <f>IF((H118+J118+L118+M118+O118)&lt;70,IF((H118+J118+L118+M118+O118)&gt;64,70,(H118+J118+L118+M118+O118)),(H118+J118+L118+M118+O118))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -6369,19 +6372,19 @@
         <v>245</v>
       </c>
       <c r="D119" s="6">
-        <f>IF((N119)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E119" s="2">
-        <f>IF((N119)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F119" s="2">
-        <f>IF((N119)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G119" s="6">
-        <f>IF((N119)&gt;=51,IF((N119-50)&gt;50,50,IF((N119-50)&lt;0,0,(N119-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H119">
@@ -6394,7 +6397,7 @@
         <v>40</v>
       </c>
       <c r="N119">
-        <f>IF((H119+J119+L119+M119+O119)&lt;70,IF((H119+J119+L119+M119+O119)&gt;64,70,(H119+J119+L119+M119+O119)),(H119+J119+L119+M119+O119))</f>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
     </row>

--- a/OYM/_DocumentosComunes/POObjetos.xlsx
+++ b/OYM/_DocumentosComunes/POObjetos.xlsx
@@ -1314,9 +1314,9 @@
   </sheetPr>
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,19 +1393,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=50,10,"")</f>
+        <f>IF((N2)&gt;=69,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=50,20,"")</f>
+        <f>IF((N2)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=50,20,"")</f>
+        <f>IF((N2)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f>IF((N2)&gt;=69,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1425,7 +1425,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="4">IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="0">IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
         <v>110</v>
       </c>
       <c r="O2">
@@ -1443,19 +1443,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="1">IF((N3)&gt;=69,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E66" si="2">IF((N3)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F3:F66" si="3">IF((N3)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G3:G66" si="4">IF((N3)&gt;=69,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H3">
@@ -1471,7 +1471,7 @@
         <v>40</v>
       </c>
       <c r="N3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -1486,19 +1486,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H4">
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -1532,19 +1532,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H5">
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
@@ -1574,21 +1574,21 @@
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+        <v/>
+      </c>
+      <c r="E6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G6" s="6">
+        <v/>
+      </c>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v/>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="H6">
         <v>20</v>
@@ -1603,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1618,19 +1618,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I7" s="13"/>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1653,19 +1653,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H8">
@@ -1681,7 +1681,7 @@
         <v>40</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -1696,19 +1696,19 @@
         <v>28</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H9">
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1742,19 +1742,19 @@
         <v>30</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H10">
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>32</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="H11">
@@ -1816,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -1831,19 +1831,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H12">
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1874,26 +1874,26 @@
         <v>36</v>
       </c>
       <c r="D13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1907,21 +1907,21 @@
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G14" s="6">
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="H14">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -1951,26 +1951,26 @@
         <v>40</v>
       </c>
       <c r="D15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G15" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="H16">
@@ -2016,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -2031,26 +2031,26 @@
         <v>44</v>
       </c>
       <c r="D17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2065,19 +2065,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="H18">
@@ -2096,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
@@ -2111,19 +2111,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H19">
@@ -2139,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
@@ -2154,26 +2154,26 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2188,19 +2188,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J21">
@@ -2216,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
@@ -2231,19 +2231,19 @@
         <v>54</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H22">
@@ -2259,7 +2259,7 @@
         <v>40</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -2274,19 +2274,19 @@
         <v>56</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H23">
@@ -2302,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>58</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H24">
@@ -2345,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -2360,19 +2360,19 @@
         <v>60</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H25">
@@ -2388,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -2403,26 +2403,26 @@
         <v>62</v>
       </c>
       <c r="D26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>64</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H27">
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2483,19 +2483,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H28">
@@ -2511,7 +2511,7 @@
         <v>40</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2526,19 +2526,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="H29">
@@ -2557,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -2572,29 +2572,29 @@
         <v>70</v>
       </c>
       <c r="D30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30">
-        <v>20</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -2609,19 +2609,19 @@
         <v>72</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H31">
@@ -2637,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2652,19 +2652,19 @@
         <v>74</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H32">
@@ -2680,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -2695,19 +2695,19 @@
         <v>76</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H33">
@@ -2726,7 +2726,7 @@
         <v>30</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
@@ -2741,19 +2741,19 @@
         <v>78</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=50,10,"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H34">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="9">IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="5">IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>70</v>
       </c>
     </row>
@@ -2784,19 +2784,19 @@
         <v>80</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H35">
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -2830,19 +2830,19 @@
         <v>82</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="H36">
@@ -2861,7 +2861,7 @@
         <v>30</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
     </row>
@@ -2876,19 +2876,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H37">
@@ -2904,7 +2904,7 @@
         <v>40</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
     </row>
@@ -2919,19 +2919,19 @@
         <v>86</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="H38">
@@ -2950,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
         <v>88</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H39">
@@ -2993,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3007,21 +3007,21 @@
       <c r="C40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="8"/>
-        <v>13</v>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="H40">
         <v>13</v>
@@ -3036,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="N40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
     </row>
@@ -3051,26 +3051,26 @@
         <v>92</v>
       </c>
       <c r="D41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G41" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3085,19 +3085,19 @@
         <v>94</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H42">
@@ -3116,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
     </row>
@@ -3131,19 +3131,19 @@
         <v>96</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H43">
@@ -3159,7 +3159,7 @@
         <v>40</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3174,19 +3174,19 @@
         <v>98</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H44">
@@ -3202,7 +3202,7 @@
         <v>40</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
@@ -3217,19 +3217,19 @@
         <v>100</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="H45">
@@ -3248,7 +3248,7 @@
         <v>25</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
     </row>
@@ -3263,26 +3263,26 @@
         <v>102</v>
       </c>
       <c r="D46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3297,26 +3297,26 @@
         <v>104</v>
       </c>
       <c r="D47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3331,19 +3331,19 @@
         <v>106</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H48">
@@ -3359,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
     </row>
@@ -3374,19 +3374,19 @@
         <v>108</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H49">
@@ -3402,7 +3402,7 @@
         <v>40</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3417,19 +3417,19 @@
         <v>110</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H50">
@@ -3445,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
@@ -3460,19 +3460,19 @@
         <v>112</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H51">
@@ -3488,7 +3488,7 @@
         <v>37</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3503,19 +3503,19 @@
         <v>114</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H52">
@@ -3531,7 +3531,7 @@
         <v>40</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>116</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="H53">
@@ -3574,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="N53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
     </row>
@@ -3589,19 +3589,19 @@
         <v>118</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H54">
@@ -3617,7 +3617,7 @@
         <v>40</v>
       </c>
       <c r="N54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
@@ -3632,19 +3632,19 @@
         <v>120</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H55">
@@ -3663,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
@@ -3678,19 +3678,19 @@
         <v>122</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H56">
@@ -3706,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="N56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -3721,19 +3721,19 @@
         <v>124</v>
       </c>
       <c r="D57" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H57">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -3761,19 +3761,19 @@
         <v>126</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H58">
@@ -3789,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
@@ -3804,19 +3804,19 @@
         <v>128</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J59">
@@ -3832,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
@@ -3847,19 +3847,19 @@
         <v>130</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J60">
@@ -3875,7 +3875,7 @@
         <v>28</v>
       </c>
       <c r="N60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -3890,19 +3890,19 @@
         <v>132</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H61">
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
@@ -3933,19 +3933,19 @@
         <v>134</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="H62">
@@ -3961,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
     </row>
@@ -3976,19 +3976,19 @@
         <v>136</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H63">
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="N63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -4019,19 +4019,19 @@
         <v>138</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H64">
@@ -4047,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="N64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -4062,19 +4062,19 @@
         <v>140</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H65">
@@ -4090,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="N65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
@@ -4105,19 +4105,19 @@
         <v>142</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" ref="D66:D97" si="10">IF((N66)&gt;=50,10,"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E97" si="11">IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ref="F66:F97" si="12">IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G97" si="13">IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H66">
@@ -4136,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="6">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>101</v>
       </c>
     </row>
@@ -4151,19 +4151,19 @@
         <v>144</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D67:D119" si="7">IF((N67)&gt;=69,10,"")</f>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E67:E119" si="8">IF((N67)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F67:F119" si="9">IF((N67)&gt;=69,20,"")</f>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G67:G119" si="10">IF((N67)&gt;=69,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H67">
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="N67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
     </row>
@@ -4194,19 +4194,19 @@
         <v>146</v>
       </c>
       <c r="D68" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="H68">
@@ -4225,7 +4225,7 @@
         <v>30</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
     </row>
@@ -4240,19 +4240,19 @@
         <v>148</v>
       </c>
       <c r="D69" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G69" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E69" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F69" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G69" s="6">
-        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H69">
@@ -4268,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -4283,19 +4283,19 @@
         <v>150</v>
       </c>
       <c r="D70" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G70" s="6">
-        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="H70">
@@ -4311,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
     </row>
@@ -4326,19 +4326,19 @@
         <v>152</v>
       </c>
       <c r="D71" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F71" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G71" s="6">
-        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="H71">
@@ -4357,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
     </row>
@@ -4372,19 +4372,19 @@
         <v>154</v>
       </c>
       <c r="D72" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H72">
@@ -4400,7 +4400,7 @@
         <v>40</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -4415,19 +4415,19 @@
         <v>156</v>
       </c>
       <c r="D73" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G73" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H73">
@@ -4446,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4461,19 +4461,19 @@
         <v>158</v>
       </c>
       <c r="D74" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G74" s="6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E74" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F74" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G74" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J74">
@@ -4486,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -4501,19 +4501,19 @@
         <v>160</v>
       </c>
       <c r="D75" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="H75">
@@ -4532,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
     </row>
@@ -4547,19 +4547,19 @@
         <v>162</v>
       </c>
       <c r="D76" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G76" s="6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F76" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G76" s="6" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J76">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4584,19 +4584,19 @@
         <v>164</v>
       </c>
       <c r="D77" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G77" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H77">
@@ -4612,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -4627,19 +4627,19 @@
         <v>166</v>
       </c>
       <c r="D78" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F78" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="H78">
@@ -4658,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
     </row>
@@ -4673,26 +4673,26 @@
         <v>168</v>
       </c>
       <c r="D79" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G79" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,19 +4707,19 @@
         <v>170</v>
       </c>
       <c r="D80" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E80" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F80" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G80" s="6">
-        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="H80">
@@ -4738,7 +4738,7 @@
         <v>30</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
     </row>
@@ -4753,19 +4753,19 @@
         <v>172</v>
       </c>
       <c r="D81" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F81" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H81">
@@ -4781,7 +4781,7 @@
         <v>40</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -4796,19 +4796,19 @@
         <v>174</v>
       </c>
       <c r="D82" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E82" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F82" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="H82">
@@ -4827,7 +4827,7 @@
         <v>10</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
@@ -4842,19 +4842,19 @@
         <v>176</v>
       </c>
       <c r="D83" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F83" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G83" s="6">
-        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="H83">
@@ -4873,7 +4873,7 @@
         <v>15</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
     </row>
@@ -4888,20 +4888,20 @@
         <v>178</v>
       </c>
       <c r="D84" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F84" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>13</v>
@@ -4915,9 +4915,12 @@
       <c r="L84">
         <v>40</v>
       </c>
+      <c r="M84">
+        <v>20</v>
+      </c>
       <c r="N84">
-        <f t="shared" si="14"/>
-        <v>71</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4931,26 +4934,26 @@
         <v>180</v>
       </c>
       <c r="D85" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G85" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F85" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4965,19 +4968,19 @@
         <v>182</v>
       </c>
       <c r="D86" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E86" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F86" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H86">
@@ -4993,7 +4996,7 @@
         <v>40</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -5008,19 +5011,19 @@
         <v>184</v>
       </c>
       <c r="D87" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H87">
@@ -5039,7 +5042,7 @@
         <v>26</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
@@ -5054,19 +5057,19 @@
         <v>186</v>
       </c>
       <c r="D88" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G88" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F88" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H88">
@@ -5082,7 +5085,7 @@
         <v>40</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -5097,19 +5100,19 @@
         <v>188</v>
       </c>
       <c r="D89" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G89" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G89" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H89">
@@ -5125,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -5140,19 +5143,19 @@
         <v>190</v>
       </c>
       <c r="D90" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="H90">
@@ -5171,7 +5174,7 @@
         <v>20</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
@@ -5186,19 +5189,19 @@
         <v>192</v>
       </c>
       <c r="D91" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G91" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F91" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G91" s="6">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H91">
@@ -5214,7 +5217,7 @@
         <v>40</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
@@ -5228,21 +5231,21 @@
       <c r="C92" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G92" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F92" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="H92">
         <v>13</v>
@@ -5257,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
     </row>
@@ -5272,19 +5275,19 @@
         <v>196</v>
       </c>
       <c r="D93" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E93" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F93" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G93" s="6">
-        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="H93">
@@ -5300,7 +5303,7 @@
         <v>40</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
     </row>
@@ -5315,19 +5318,19 @@
         <v>198</v>
       </c>
       <c r="D94" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G94" s="6">
-        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="H94">
@@ -5346,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
     </row>
@@ -5361,19 +5364,19 @@
         <v>200</v>
       </c>
       <c r="D95" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F95" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G95" s="6">
-        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="H95">
@@ -5392,7 +5395,7 @@
         <v>20</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
     </row>
@@ -5407,19 +5410,19 @@
         <v>202</v>
       </c>
       <c r="D96" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G96" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E96" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F96" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G96" s="6">
-        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H96">
@@ -5435,7 +5438,7 @@
         <v>40</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
     </row>
@@ -5450,19 +5453,19 @@
         <v>204</v>
       </c>
       <c r="D97" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G97" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="E97" s="2">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="F97" s="2">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="G97" s="6">
-        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="H97">
@@ -5481,7 +5484,7 @@
         <v>20</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
     </row>
@@ -5496,19 +5499,19 @@
         <v>206</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" ref="D98:D119" si="15">IF((N98)&gt;=50,10,"")</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" ref="E98:E119" si="16">IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F119" si="17">IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" ref="G98:G119" si="18">IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="H98">
@@ -5527,7 +5530,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="19">IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N119" si="11">IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
         <v>91</v>
       </c>
     </row>
@@ -5542,19 +5545,19 @@
         <v>208</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="H99">
@@ -5570,7 +5573,7 @@
         <v>40</v>
       </c>
       <c r="N99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
     </row>
@@ -5585,19 +5588,19 @@
         <v>210</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="H100">
@@ -5613,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="N100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
@@ -5628,19 +5631,19 @@
         <v>212</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="H101">
@@ -5659,7 +5662,7 @@
         <v>30</v>
       </c>
       <c r="N101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
@@ -5674,19 +5677,19 @@
         <v>214</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H102">
@@ -5702,7 +5705,7 @@
         <v>40</v>
       </c>
       <c r="N102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -5717,19 +5720,19 @@
         <v>216</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H103">
@@ -5745,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="N103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -5760,19 +5763,19 @@
         <v>218</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="H104">
@@ -5788,7 +5791,7 @@
         <v>40</v>
       </c>
       <c r="N104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
@@ -5803,19 +5806,19 @@
         <v>220</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H105">
@@ -5831,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="N105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
     </row>
@@ -5846,19 +5849,19 @@
         <v>222</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H106">
@@ -5874,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="N106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -5889,19 +5892,19 @@
         <v>224</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="H107">
@@ -5920,7 +5923,7 @@
         <v>20</v>
       </c>
       <c r="N107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
     </row>
@@ -5935,19 +5938,19 @@
         <v>226</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="H108">
@@ -5963,7 +5966,7 @@
         <v>40</v>
       </c>
       <c r="N108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
     </row>
@@ -5978,19 +5981,19 @@
         <v>228</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="H109">
@@ -6009,7 +6012,7 @@
         <v>25</v>
       </c>
       <c r="N109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
@@ -6024,19 +6027,19 @@
         <v>230</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="J110">
@@ -6052,7 +6055,7 @@
         <v>20</v>
       </c>
       <c r="N110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
@@ -6067,26 +6070,26 @@
         <v>232</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F111" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="N111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6101,19 +6104,19 @@
         <v>234</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="H112">
@@ -6132,7 +6135,7 @@
         <v>30</v>
       </c>
       <c r="N112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -6147,19 +6150,19 @@
         <v>236</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H113">
@@ -6178,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="N113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -6193,19 +6196,19 @@
         <v>238</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H114">
@@ -6221,7 +6224,7 @@
         <v>35</v>
       </c>
       <c r="N114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -6236,19 +6239,19 @@
         <v>240</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H115">
@@ -6264,7 +6267,7 @@
         <v>40</v>
       </c>
       <c r="N115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -6279,19 +6282,19 @@
         <v>242</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="H116">
@@ -6307,7 +6310,7 @@
         <v>40</v>
       </c>
       <c r="N116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -6316,23 +6319,23 @@
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F117" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G117" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6343,23 +6346,23 @@
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F118" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G118" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6372,19 +6375,19 @@
         <v>245</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="H119">
@@ -6397,7 +6400,7 @@
         <v>40</v>
       </c>
       <c r="N119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
     </row>
